--- a/resource_api/maliyet_raporlar/dosyalar/ayo_maliyet_listesi.xlsx
+++ b/resource_api/maliyet_raporlar/dosyalar/ayo_maliyet_listesi.xlsx
@@ -843,17 +843,17 @@
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>22JAT01</t>
+          <t>23WS26</t>
         </is>
       </c>
       <c r="D2" s="22" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="F2" s="32" t="inlineStr">
         <is>
-          <t>14-09-2022</t>
+          <t>02-02-2023</t>
         </is>
       </c>
       <c r="G2" s="32" t="inlineStr">
         <is>
-          <t>06-10-2022</t>
+          <t>03-02-2023</t>
         </is>
       </c>
       <c r="H2" s="12" t="inlineStr">
         <is>
-          <t>Jacob Tyroller- USA</t>
+          <t>Radu &amp; Eugen - USA</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="K2" s="33" t="n">
-        <v>2558.99</v>
+        <v>6227.5</v>
       </c>
       <c r="L2" s="34" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="34" t="n">
-        <v>1758.33</v>
+        <v>5216.0703</v>
       </c>
       <c r="O2" s="34" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="35" t="n">
-        <v>334.92</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="36" t="n">
         <v>0</v>
@@ -940,40 +940,40 @@
         <v>0</v>
       </c>
       <c r="AA2" s="36" t="n">
-        <v>89.79000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="36" t="n">
         <v>0</v>
       </c>
       <c r="AC2" s="37" t="n">
-        <v>2183.04</v>
+        <v>5216.0703</v>
       </c>
       <c r="AD2" s="38" t="n">
-        <v>375.95</v>
+        <v>1011.4297</v>
       </c>
       <c r="AE2" s="17" t="n">
-        <v>6876.1255</v>
+        <v>19065.449845</v>
       </c>
       <c r="AF2" s="19" t="inlineStr">
         <is>
-          <t>14-09-2022</t>
+          <t>02-02-2023</t>
         </is>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>Mehmet</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>22PRIM02-3</t>
+          <t>23VEIK88</t>
         </is>
       </c>
       <c r="D3" s="22" t="inlineStr">
@@ -988,22 +988,22 @@
       </c>
       <c r="F3" s="32" t="inlineStr">
         <is>
-          <t>08-03-2022</t>
+          <t>19-01-2023</t>
         </is>
       </c>
       <c r="G3" s="32" t="inlineStr">
         <is>
-          <t>08-10-2022</t>
+          <t>09-02-2023</t>
         </is>
       </c>
       <c r="H3" s="12" t="inlineStr">
         <is>
-          <t>Prim Rose - Ghana</t>
+          <t>VEIK - UAE</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -1012,10 +1012,10 @@
         </is>
       </c>
       <c r="K3" s="33" t="n">
-        <v>60922.32</v>
+        <v>34086.12</v>
       </c>
       <c r="L3" s="34" t="n">
-        <v>39569.075</v>
+        <v>28231.465</v>
       </c>
       <c r="M3" s="34" t="n">
         <v>0</v>
@@ -1024,13 +1024,13 @@
         <v>0</v>
       </c>
       <c r="O3" s="34" t="n">
-        <v>540.55</v>
+        <v>520.54</v>
       </c>
       <c r="P3" s="34" t="n">
-        <v>74.51000000000001</v>
+        <v>74.65000000000001</v>
       </c>
       <c r="Q3" s="35" t="n">
-        <v>40.27</v>
+        <v>51.91</v>
       </c>
       <c r="R3" s="35" t="n">
         <v>800</v>
@@ -1039,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="T3" s="35" t="n">
-        <v>4840</v>
+        <v>880</v>
       </c>
       <c r="U3" s="35" t="n">
-        <v>3800</v>
+        <v>0</v>
       </c>
       <c r="V3" s="35" t="n">
         <v>0</v>
@@ -1060,40 +1060,40 @@
         <v>0</v>
       </c>
       <c r="AA3" s="36" t="n">
-        <v>0</v>
+        <v>54.09</v>
       </c>
       <c r="AB3" s="36" t="n">
-        <v>18.13</v>
+        <v>21.17</v>
       </c>
       <c r="AC3" s="37" t="n">
-        <v>49682.535</v>
+        <v>30633.825</v>
       </c>
       <c r="AD3" s="38" t="n">
-        <v>11239.785</v>
+        <v>3452.295</v>
       </c>
       <c r="AE3" s="17" t="n">
-        <v>202316.13</v>
+        <v>65593.605</v>
       </c>
       <c r="AF3" s="19" t="inlineStr">
         <is>
-          <t>03-08-2022</t>
+          <t>10-03-2023</t>
         </is>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Hakan</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Hakan</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>22KET01 - 2</t>
+          <t>22BCA02- 3</t>
         </is>
       </c>
       <c r="D4" s="22" t="inlineStr">
@@ -1108,34 +1108,34 @@
       </c>
       <c r="F4" s="32" t="inlineStr">
         <is>
-          <t>21-09-2022</t>
+          <t>08-12-2022</t>
         </is>
       </c>
       <c r="G4" s="32" t="inlineStr">
         <is>
-          <t>15-10-2022</t>
+          <t>17-02-2023</t>
         </is>
       </c>
       <c r="H4" s="12" t="inlineStr">
         <is>
-          <t>Keith Tabor - USA</t>
+          <t>Kirill Nizovskiy - Dubai</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>DDP</t>
+          <t>FOB</t>
         </is>
       </c>
       <c r="K4" s="33" t="n">
-        <v>3537.28</v>
+        <v>20520</v>
       </c>
       <c r="L4" s="34" t="n">
-        <v>1052.8</v>
+        <v>17442</v>
       </c>
       <c r="M4" s="34" t="n">
         <v>0</v>
@@ -1144,22 +1144,22 @@
         <v>0</v>
       </c>
       <c r="O4" s="34" t="n">
-        <v>0</v>
+        <v>257.06</v>
       </c>
       <c r="P4" s="34" t="n">
-        <v>0</v>
+        <v>53.97</v>
       </c>
       <c r="Q4" s="35" t="n">
-        <v>0</v>
+        <v>10.58</v>
       </c>
       <c r="R4" s="35" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S4" s="35" t="n">
         <v>0</v>
       </c>
       <c r="T4" s="35" t="n">
-        <v>961.4</v>
+        <v>0</v>
       </c>
       <c r="U4" s="35" t="n">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="35" t="n">
-        <v>293.34</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="36" t="n">
         <v>0</v>
@@ -1186,34 +1186,34 @@
         <v>0</v>
       </c>
       <c r="AC4" s="37" t="n">
-        <v>2307.54</v>
+        <v>18163.61</v>
       </c>
       <c r="AD4" s="38" t="n">
-        <v>0</v>
+        <v>2356.39</v>
       </c>
       <c r="AE4" s="17" t="n">
-        <v>0</v>
+        <v>44465.0793</v>
       </c>
       <c r="AF4" s="19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>09-02-2023</t>
         </is>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Hakan</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Hakan</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>22KET01 - 1</t>
+          <t>22DON01</t>
         </is>
       </c>
       <c r="D5" s="22" t="inlineStr">
@@ -1228,17 +1228,17 @@
       </c>
       <c r="F5" s="32" t="inlineStr">
         <is>
-          <t>21-09-2022</t>
+          <t>28-12-2022</t>
         </is>
       </c>
       <c r="G5" s="32" t="inlineStr">
         <is>
-          <t>15-10-2022</t>
+          <t>23-02-2023</t>
         </is>
       </c>
       <c r="H5" s="12" t="inlineStr">
         <is>
-          <t>Keith Tabor - USA</t>
+          <t>Donald Gorski - USA</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="K5" s="33" t="n">
-        <v>743</v>
+        <v>5356.58</v>
       </c>
       <c r="L5" s="34" t="n">
         <v>0</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="34" t="n">
-        <v>0</v>
+        <v>2503.725</v>
       </c>
       <c r="O5" s="34" t="n">
         <v>0</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="35" t="n">
-        <v>0</v>
+        <v>1767</v>
       </c>
       <c r="U5" s="35" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="35" t="n">
-        <v>83.7</v>
+        <v>527.1</v>
       </c>
       <c r="Y5" s="36" t="n">
         <v>0</v>
@@ -1306,24 +1306,24 @@
         <v>0</v>
       </c>
       <c r="AC5" s="37" t="n">
-        <v>83.7</v>
+        <v>4797.825</v>
       </c>
       <c r="AD5" s="38" t="n">
-        <v>659.3</v>
+        <v>558.755</v>
       </c>
       <c r="AE5" s="17" t="n">
-        <v>12104.748</v>
+        <v>10482.2438</v>
       </c>
       <c r="AF5" s="19" t="inlineStr">
         <is>
-          <t>21-09-2022</t>
+          <t>29-12-2022</t>
         </is>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>22LLP01</t>
+          <t>23BKF08</t>
         </is>
       </c>
       <c r="D6" s="22" t="inlineStr">
@@ -1343,36 +1343,36 @@
       </c>
       <c r="E6" s="22" t="inlineStr">
         <is>
-          <t>Efes</t>
+          <t>Mekmar</t>
         </is>
       </c>
       <c r="F6" s="32" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>07-02-2023</t>
         </is>
       </c>
       <c r="G6" s="32" t="inlineStr">
         <is>
-          <t>17-10-2022</t>
+          <t>23-02-2023</t>
         </is>
       </c>
       <c r="H6" s="12" t="inlineStr">
         <is>
-          <t>Sherzod Tairov - Kazakhstan</t>
+          <t>BKF - USA</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t>FOB</t>
+          <t>EXW</t>
         </is>
       </c>
       <c r="K6" s="33" t="n">
-        <v>18000</v>
+        <v>962.9400000000001</v>
       </c>
       <c r="L6" s="34" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="N6" s="34" t="n">
-        <v>10494.4</v>
+        <v>548</v>
       </c>
       <c r="O6" s="34" t="n">
-        <v>152.82</v>
+        <v>0</v>
       </c>
       <c r="P6" s="34" t="n">
-        <v>68.17</v>
+        <v>61.37</v>
       </c>
       <c r="Q6" s="35" t="n">
         <v>0</v>
@@ -1423,27 +1423,27 @@
         <v>0</v>
       </c>
       <c r="AB6" s="36" t="n">
-        <v>16.54</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="37" t="n">
-        <v>10731.93</v>
+        <v>609.37</v>
       </c>
       <c r="AD6" s="38" t="n">
-        <v>7268.07</v>
+        <v>353.57</v>
       </c>
       <c r="AE6" s="17" t="n">
-        <v>119705.1129</v>
+        <v>6671.8659</v>
       </c>
       <c r="AF6" s="19" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>07-02-2023</t>
         </is>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>22WS23</t>
+          <t>23MA01</t>
         </is>
       </c>
       <c r="D7" s="22" t="inlineStr">
@@ -1468,58 +1468,58 @@
       </c>
       <c r="F7" s="32" t="inlineStr">
         <is>
-          <t>19-08-2022</t>
+          <t>27-01-2023</t>
         </is>
       </c>
       <c r="G7" s="32" t="inlineStr">
         <is>
-          <t>17-10-2022</t>
+          <t>25-02-2023</t>
         </is>
       </c>
       <c r="H7" s="12" t="inlineStr">
         <is>
-          <t>Radu &amp; Eugen - USA</t>
+          <t>Mama Abui - Ghana</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
-          <t>FOB</t>
+          <t>CFR</t>
         </is>
       </c>
       <c r="K7" s="33" t="n">
-        <v>36568.18</v>
+        <v>33731.67</v>
       </c>
       <c r="L7" s="34" t="n">
-        <v>25183.5645</v>
+        <v>0</v>
       </c>
       <c r="M7" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N7" s="34" t="n">
-        <v>3976</v>
+        <v>19512.42</v>
       </c>
       <c r="O7" s="34" t="n">
-        <v>889.17</v>
+        <v>488.96</v>
       </c>
       <c r="P7" s="34" t="n">
-        <v>81.86</v>
+        <v>64.38</v>
       </c>
       <c r="Q7" s="35" t="n">
-        <v>48.31</v>
+        <v>10.57</v>
       </c>
       <c r="R7" s="35" t="n">
-        <v>1050</v>
+        <v>400</v>
       </c>
       <c r="S7" s="35" t="n">
         <v>0</v>
       </c>
       <c r="T7" s="35" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="U7" s="35" t="n">
         <v>0</v>
@@ -1540,23 +1540,23 @@
         <v>0</v>
       </c>
       <c r="AA7" s="36" t="n">
-        <v>36</v>
+        <v>46.11</v>
       </c>
       <c r="AB7" s="36" t="n">
+        <v>23.81</v>
+      </c>
+      <c r="AC7" s="37" t="n">
+        <v>21646.25</v>
+      </c>
+      <c r="AD7" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="AC7" s="37" t="n">
-        <v>31264.9045</v>
-      </c>
-      <c r="AD7" s="38" t="n">
-        <v>5303.2755</v>
-      </c>
       <c r="AE7" s="17" t="n">
-        <v>98853.05532</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="19" t="inlineStr">
         <is>
-          <t>10-11-2022</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>22WS24</t>
+          <t>23SAN01</t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">
@@ -1588,46 +1588,46 @@
       </c>
       <c r="F8" s="32" t="inlineStr">
         <is>
-          <t>19-08-2022</t>
+          <t>31-01-2023</t>
         </is>
       </c>
       <c r="G8" s="32" t="inlineStr">
         <is>
-          <t>17-10-2022</t>
+          <t>27-02-2023</t>
         </is>
       </c>
       <c r="H8" s="12" t="inlineStr">
         <is>
-          <t>Radu &amp; Eugen - USA</t>
+          <t>Ante Drazic - HR</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t>FOB</t>
+          <t>FCA</t>
         </is>
       </c>
       <c r="K8" s="33" t="n">
-        <v>12159.19</v>
+        <v>12350.24</v>
       </c>
       <c r="L8" s="34" t="n">
-        <v>10364.5905</v>
+        <v>7994.204</v>
       </c>
       <c r="M8" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="34" t="n">
-        <v>0</v>
+        <v>1974</v>
       </c>
       <c r="O8" s="34" t="n">
         <v>0</v>
       </c>
       <c r="P8" s="34" t="n">
-        <v>0</v>
+        <v>38.44</v>
       </c>
       <c r="Q8" s="35" t="n">
         <v>0</v>
@@ -1660,40 +1660,40 @@
         <v>0</v>
       </c>
       <c r="AA8" s="36" t="n">
-        <v>0</v>
+        <v>62.22</v>
       </c>
       <c r="AB8" s="36" t="n">
         <v>0</v>
       </c>
       <c r="AC8" s="37" t="n">
-        <v>10364.5905</v>
+        <v>10068.864</v>
       </c>
       <c r="AD8" s="38" t="n">
-        <v>1794.5995</v>
+        <v>2281.376</v>
       </c>
       <c r="AE8" s="17" t="n">
-        <v>33451.33468</v>
+        <v>43140.82016</v>
       </c>
       <c r="AF8" s="19" t="inlineStr">
         <is>
-          <t>10-11-2022</t>
+          <t>22-02-2023</t>
         </is>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="13" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C9" s="13" t="inlineStr">
         <is>
-          <t>22APP16</t>
+          <t>23ALIT05</t>
         </is>
       </c>
       <c r="D9" s="22" t="inlineStr">
@@ -1708,52 +1708,52 @@
       </c>
       <c r="F9" s="32" t="inlineStr">
         <is>
-          <t>03-10-2022</t>
+          <t>02-02-2023</t>
         </is>
       </c>
       <c r="G9" s="32" t="inlineStr">
         <is>
-          <t>21-10-2022</t>
+          <t>27-02-2023</t>
         </is>
       </c>
       <c r="H9" s="12" t="inlineStr">
         <is>
-          <t>Appia Marmi - Italy</t>
+          <t>Branislav Mikulovsky - Slovakia</t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
-          <t>FCA</t>
+          <t>FOB</t>
         </is>
       </c>
       <c r="K9" s="33" t="n">
-        <v>1403</v>
+        <v>9391.370000000001</v>
       </c>
       <c r="L9" s="34" t="n">
-        <v>1199</v>
+        <v>8396.424000000001</v>
       </c>
       <c r="M9" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N9" s="34" t="n">
-        <v>0</v>
+        <v>46.17</v>
       </c>
       <c r="O9" s="34" t="n">
-        <v>0</v>
+        <v>256.78</v>
       </c>
       <c r="P9" s="34" t="n">
-        <v>15.9</v>
+        <v>41.73</v>
       </c>
       <c r="Q9" s="35" t="n">
         <v>0</v>
       </c>
       <c r="R9" s="35" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S9" s="35" t="n">
         <v>0</v>
@@ -1780,23 +1780,23 @@
         <v>0</v>
       </c>
       <c r="AA9" s="36" t="n">
-        <v>28.5</v>
+        <v>30.71</v>
       </c>
       <c r="AB9" s="36" t="n">
         <v>0</v>
       </c>
       <c r="AC9" s="37" t="n">
-        <v>1243.4</v>
+        <v>9171.814</v>
       </c>
       <c r="AD9" s="38" t="n">
-        <v>159.6</v>
+        <v>219.556</v>
       </c>
       <c r="AE9" s="17" t="n">
-        <v>2973.348</v>
+        <v>4169.36844</v>
       </c>
       <c r="AF9" s="19" t="inlineStr">
         <is>
-          <t>18-10-2022</t>
+          <t>09-03-2023</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C10" s="13" t="inlineStr">
         <is>
-          <t>22OLI21</t>
+          <t>23BRENT02</t>
         </is>
       </c>
       <c r="D10" s="22" t="inlineStr">
@@ -1828,46 +1828,46 @@
       </c>
       <c r="F10" s="32" t="inlineStr">
         <is>
-          <t>05-10-2022</t>
+          <t>16-02-2023</t>
         </is>
       </c>
       <c r="G10" s="32" t="inlineStr">
         <is>
-          <t>21-10-2022</t>
+          <t>27-02-2023</t>
         </is>
       </c>
       <c r="H10" s="12" t="inlineStr">
         <is>
-          <t>Daniela, OLI - Austria</t>
+          <t>Brent Losey - USA</t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
-          <t>FCA</t>
+          <t>DDP</t>
         </is>
       </c>
       <c r="K10" s="33" t="n">
-        <v>525</v>
+        <v>1503.98</v>
       </c>
       <c r="L10" s="34" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="M10" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="34" t="n">
-        <v>0</v>
+        <v>869.4634</v>
       </c>
       <c r="O10" s="34" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="34" t="n">
-        <v>18.69</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="35" t="n">
         <v>0</v>
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="35" t="n">
-        <v>0</v>
+        <v>460.24</v>
       </c>
       <c r="U10" s="35" t="n">
         <v>0</v>
@@ -1900,145 +1900,59 @@
         <v>0</v>
       </c>
       <c r="AA10" s="36" t="n">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="AB10" s="36" t="n">
         <v>0</v>
       </c>
       <c r="AC10" s="37" t="n">
-        <v>468.69</v>
+        <v>1340.4534</v>
       </c>
       <c r="AD10" s="38" t="n">
-        <v>56.31</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="17" t="n">
-        <v>1047.9291</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="19" t="inlineStr">
-        <is>
-          <t>04-10-2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="30" customHeight="1">
-      <c r="A11" s="13" t="inlineStr">
-        <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="B11" s="13" t="inlineStr">
-        <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="C11" s="13" t="inlineStr">
-        <is>
-          <t>22BRP09</t>
-        </is>
-      </c>
-      <c r="D11" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E11" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F11" s="32" t="inlineStr">
-        <is>
-          <t>13-09-2022</t>
-        </is>
-      </c>
-      <c r="G11" s="32" t="inlineStr">
-        <is>
-          <t>24-10-2022</t>
-        </is>
-      </c>
-      <c r="H11" s="12" t="inlineStr">
-        <is>
-          <t>Tracy - AU</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>FCA</t>
-        </is>
-      </c>
-      <c r="K11" s="33" t="n">
-        <v>13245.5</v>
-      </c>
-      <c r="L11" s="34" t="n">
-        <v>1095.072</v>
-      </c>
-      <c r="M11" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="34" t="n">
-        <v>8930.100399999999</v>
-      </c>
-      <c r="O11" s="34" t="n">
-        <v>503.28</v>
-      </c>
-      <c r="P11" s="34" t="n">
-        <v>33.32</v>
-      </c>
-      <c r="Q11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="36" t="n">
-        <v>464</v>
-      </c>
-      <c r="AA11" s="36" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AB11" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="37" t="n">
-        <v>11026.4924</v>
-      </c>
-      <c r="AD11" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" s="13" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="13" t="n"/>
+      <c r="D11" s="22" t="n"/>
+      <c r="E11" s="22" t="n"/>
+      <c r="F11" s="32" t="n"/>
+      <c r="G11" s="32" t="n"/>
+      <c r="H11" s="12" t="n"/>
+      <c r="I11" s="3" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="33" t="n"/>
+      <c r="L11" s="34" t="n"/>
+      <c r="M11" s="34" t="n"/>
+      <c r="N11" s="34" t="n"/>
+      <c r="O11" s="34" t="n"/>
+      <c r="P11" s="34" t="n"/>
+      <c r="Q11" s="35" t="n"/>
+      <c r="R11" s="35" t="n"/>
+      <c r="S11" s="35" t="n"/>
+      <c r="T11" s="35" t="n"/>
+      <c r="U11" s="35" t="n"/>
+      <c r="V11" s="35" t="n"/>
+      <c r="W11" s="35" t="n"/>
+      <c r="X11" s="35" t="n"/>
+      <c r="Y11" s="36" t="n"/>
+      <c r="Z11" s="36" t="n"/>
+      <c r="AA11" s="36" t="n"/>
+      <c r="AB11" s="36" t="n"/>
+      <c r="AC11" s="37" t="n"/>
+      <c r="AD11" s="38" t="n"/>
+      <c r="AE11" s="17" t="n"/>
+      <c r="AF11" s="19" t="n"/>
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="13" t="n"/>

--- a/resource_api/maliyet_raporlar/dosyalar/ayo_maliyet_listesi.xlsx
+++ b/resource_api/maliyet_raporlar/dosyalar/ayo_maliyet_listesi.xlsx
@@ -843,17 +843,17 @@
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Hakan</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Hakan</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>23WS26</t>
+          <t>23FRAN01</t>
         </is>
       </c>
       <c r="D2" s="22" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="F2" s="32" t="inlineStr">
         <is>
-          <t>02-02-2023</t>
+          <t>22-02-2023</t>
         </is>
       </c>
       <c r="G2" s="32" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>01-04-2023</t>
         </is>
       </c>
       <c r="H2" s="12" t="inlineStr">
         <is>
-          <t>Radu &amp; Eugen - USA</t>
+          <t>Franchesta - USA</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -888,11 +888,11 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>DDP</t>
+          <t>FOB</t>
         </is>
       </c>
       <c r="K2" s="33" t="n">
-        <v>6227.5</v>
+        <v>31252.8</v>
       </c>
       <c r="L2" s="34" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="N2" s="34" t="n">
-        <v>5216.0703</v>
+        <v>0</v>
       </c>
       <c r="O2" s="34" t="n">
-        <v>0</v>
+        <v>832.62</v>
       </c>
       <c r="P2" s="34" t="n">
-        <v>0</v>
+        <v>126.81</v>
       </c>
       <c r="Q2" s="35" t="n">
-        <v>0</v>
+        <v>171.01</v>
       </c>
       <c r="R2" s="35" t="n">
-        <v>0</v>
+        <v>1110</v>
       </c>
       <c r="S2" s="35" t="n">
         <v>0</v>
@@ -940,23 +940,23 @@
         <v>0</v>
       </c>
       <c r="AA2" s="36" t="n">
-        <v>0</v>
+        <v>63.8</v>
       </c>
       <c r="AB2" s="36" t="n">
         <v>0</v>
       </c>
       <c r="AC2" s="37" t="n">
-        <v>5216.0703</v>
+        <v>2327.56</v>
       </c>
       <c r="AD2" s="38" t="n">
-        <v>1011.4297</v>
+        <v>28925.24</v>
       </c>
       <c r="AE2" s="17" t="n">
-        <v>19065.449845</v>
+        <v>565777.6944</v>
       </c>
       <c r="AF2" s="19" t="inlineStr">
         <is>
-          <t>02-02-2023</t>
+          <t>10-05-2023</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>23VEIK88</t>
+          <t>22COS29</t>
         </is>
       </c>
       <c r="D3" s="22" t="inlineStr">
@@ -988,64 +988,64 @@
       </c>
       <c r="F3" s="32" t="inlineStr">
         <is>
-          <t>19-01-2023</t>
+          <t>10-11-2022</t>
         </is>
       </c>
       <c r="G3" s="32" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>03-04-2023</t>
         </is>
       </c>
       <c r="H3" s="12" t="inlineStr">
         <is>
-          <t>VEIK - UAE</t>
+          <t>Kirill - Russia</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>CFR</t>
+          <t>FOB</t>
         </is>
       </c>
       <c r="K3" s="33" t="n">
-        <v>34086.12</v>
+        <v>19917.99</v>
       </c>
       <c r="L3" s="34" t="n">
-        <v>28231.465</v>
+        <v>5427</v>
       </c>
       <c r="M3" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="34" t="n">
-        <v>0</v>
+        <v>4700.16</v>
       </c>
       <c r="O3" s="34" t="n">
-        <v>520.54</v>
+        <v>467.72</v>
       </c>
       <c r="P3" s="34" t="n">
-        <v>74.65000000000001</v>
+        <v>52.64</v>
       </c>
       <c r="Q3" s="35" t="n">
-        <v>51.91</v>
+        <v>0</v>
       </c>
       <c r="R3" s="35" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="S3" s="35" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="35" t="n">
-        <v>880</v>
+        <v>0</v>
       </c>
       <c r="U3" s="35" t="n">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="V3" s="35" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="W3" s="35" t="n">
         <v>0</v>
@@ -1054,46 +1054,46 @@
         <v>0</v>
       </c>
       <c r="Y3" s="36" t="n">
-        <v>0</v>
+        <v>2589</v>
       </c>
       <c r="Z3" s="36" t="n">
         <v>0</v>
       </c>
       <c r="AA3" s="36" t="n">
-        <v>54.09</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="36" t="n">
-        <v>21.17</v>
+        <v>22.38</v>
       </c>
       <c r="AC3" s="37" t="n">
-        <v>30633.825</v>
+        <v>15482.39</v>
       </c>
       <c r="AD3" s="38" t="n">
-        <v>3452.295</v>
+        <v>4435.6</v>
       </c>
       <c r="AE3" s="17" t="n">
-        <v>65593.605</v>
+        <v>85207.876</v>
       </c>
       <c r="AF3" s="19" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>30-03-2023</t>
         </is>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>22BCA02- 3</t>
+          <t>23TSE01-1</t>
         </is>
       </c>
       <c r="D4" s="22" t="inlineStr">
@@ -1108,49 +1108,49 @@
       </c>
       <c r="F4" s="32" t="inlineStr">
         <is>
-          <t>08-12-2022</t>
+          <t>11-03-2023</t>
         </is>
       </c>
       <c r="G4" s="32" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>03-04-2023</t>
         </is>
       </c>
       <c r="H4" s="12" t="inlineStr">
         <is>
-          <t>Kirill Nizovskiy - Dubai</t>
+          <t>Kwabena Osei - Ghana</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>FOB</t>
+          <t>CFR</t>
         </is>
       </c>
       <c r="K4" s="33" t="n">
-        <v>20520</v>
+        <v>24647.44</v>
       </c>
       <c r="L4" s="34" t="n">
-        <v>17442</v>
+        <v>12361.482</v>
       </c>
       <c r="M4" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="34" t="n">
-        <v>0</v>
+        <v>6150.87</v>
       </c>
       <c r="O4" s="34" t="n">
-        <v>257.06</v>
+        <v>258.18</v>
       </c>
       <c r="P4" s="34" t="n">
-        <v>53.97</v>
+        <v>48.73</v>
       </c>
       <c r="Q4" s="35" t="n">
-        <v>10.58</v>
+        <v>10.36</v>
       </c>
       <c r="R4" s="35" t="n">
         <v>400</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="35" t="n">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="U4" s="35" t="n">
         <v>0</v>
@@ -1183,37 +1183,37 @@
         <v>0</v>
       </c>
       <c r="AB4" s="36" t="n">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="AC4" s="37" t="n">
-        <v>18163.61</v>
+        <v>20511.792</v>
       </c>
       <c r="AD4" s="38" t="n">
-        <v>2356.39</v>
+        <v>4135.648</v>
       </c>
       <c r="AE4" s="17" t="n">
-        <v>44465.0793</v>
+        <v>89040.50144000001</v>
       </c>
       <c r="AF4" s="19" t="inlineStr">
         <is>
-          <t>09-02-2023</t>
+          <t>06-06-2023</t>
         </is>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Su</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>22DON01</t>
+          <t>23SU112</t>
         </is>
       </c>
       <c r="D5" s="22" t="inlineStr">
@@ -1228,40 +1228,40 @@
       </c>
       <c r="F5" s="32" t="inlineStr">
         <is>
-          <t>28-12-2022</t>
+          <t>13-03-2023</t>
         </is>
       </c>
       <c r="G5" s="32" t="inlineStr">
         <is>
-          <t>23-02-2023</t>
+          <t>04-04-2023</t>
         </is>
       </c>
       <c r="H5" s="12" t="inlineStr">
         <is>
-          <t>Donald Gorski - USA</t>
+          <t>Tamer ($)</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>DDP</t>
+          <t>EXW</t>
         </is>
       </c>
       <c r="K5" s="33" t="n">
-        <v>5356.58</v>
+        <v>1762</v>
       </c>
       <c r="L5" s="34" t="n">
-        <v>0</v>
+        <v>1285.2</v>
       </c>
       <c r="M5" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N5" s="34" t="n">
-        <v>2503.725</v>
+        <v>0</v>
       </c>
       <c r="O5" s="34" t="n">
         <v>0</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="35" t="n">
-        <v>1767</v>
+        <v>0</v>
       </c>
       <c r="U5" s="35" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="35" t="n">
-        <v>527.1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="36" t="n">
         <v>0</v>
@@ -1306,24 +1306,24 @@
         <v>0</v>
       </c>
       <c r="AC5" s="37" t="n">
-        <v>4797.825</v>
+        <v>1285.2</v>
       </c>
       <c r="AD5" s="38" t="n">
-        <v>558.755</v>
+        <v>476.8</v>
       </c>
       <c r="AE5" s="17" t="n">
-        <v>10482.2438</v>
+        <v>9545.536</v>
       </c>
       <c r="AF5" s="19" t="inlineStr">
         <is>
-          <t>29-12-2022</t>
+          <t>29-05-2023</t>
         </is>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Hakan</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>23BKF08</t>
+          <t>23BPO01</t>
         </is>
       </c>
       <c r="D6" s="22" t="inlineStr">
@@ -1348,52 +1348,52 @@
       </c>
       <c r="F6" s="32" t="inlineStr">
         <is>
-          <t>07-02-2023</t>
+          <t>01-03-2023</t>
         </is>
       </c>
       <c r="G6" s="32" t="inlineStr">
         <is>
-          <t>23-02-2023</t>
+          <t>04-04-2023</t>
         </is>
       </c>
       <c r="H6" s="12" t="inlineStr">
         <is>
-          <t>BKF - USA</t>
+          <t>Alexander Endrody - Slovakia</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t>EXW</t>
+          <t>FOB</t>
         </is>
       </c>
       <c r="K6" s="33" t="n">
-        <v>962.9400000000001</v>
+        <v>30890.39</v>
       </c>
       <c r="L6" s="34" t="n">
-        <v>0</v>
+        <v>21278.1525</v>
       </c>
       <c r="M6" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="34" t="n">
-        <v>548</v>
+        <v>3901.5</v>
       </c>
       <c r="O6" s="34" t="n">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="P6" s="34" t="n">
-        <v>61.37</v>
+        <v>80.25</v>
       </c>
       <c r="Q6" s="35" t="n">
         <v>0</v>
       </c>
       <c r="R6" s="35" t="n">
-        <v>0</v>
+        <v>1031.51</v>
       </c>
       <c r="S6" s="35" t="n">
         <v>0</v>
@@ -1417,43 +1417,43 @@
         <v>0</v>
       </c>
       <c r="Z6" s="36" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AA6" s="36" t="n">
-        <v>0</v>
+        <v>113.82</v>
       </c>
       <c r="AB6" s="36" t="n">
         <v>0</v>
       </c>
       <c r="AC6" s="37" t="n">
-        <v>609.37</v>
+        <v>27623.5525</v>
       </c>
       <c r="AD6" s="38" t="n">
-        <v>353.57</v>
+        <v>3266.8375</v>
       </c>
       <c r="AE6" s="17" t="n">
-        <v>6671.8659</v>
+        <v>63278.642375</v>
       </c>
       <c r="AF6" s="19" t="inlineStr">
         <is>
-          <t>07-02-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>Mehmet</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>23MA01</t>
+          <t>23MICK02</t>
         </is>
       </c>
       <c r="D7" s="22" t="inlineStr">
@@ -1468,58 +1468,58 @@
       </c>
       <c r="F7" s="32" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>19-01-2023</t>
         </is>
       </c>
       <c r="G7" s="32" t="inlineStr">
         <is>
-          <t>25-02-2023</t>
+          <t>04-04-2023</t>
         </is>
       </c>
       <c r="H7" s="12" t="inlineStr">
         <is>
-          <t>Mama Abui - Ghana</t>
+          <t xml:space="preserve">Michael - Germany </t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
-          <t>CFR</t>
+          <t>FCA</t>
         </is>
       </c>
       <c r="K7" s="33" t="n">
-        <v>33731.67</v>
+        <v>7221.68</v>
       </c>
       <c r="L7" s="34" t="n">
-        <v>0</v>
+        <v>4801.0425</v>
       </c>
       <c r="M7" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N7" s="34" t="n">
-        <v>19512.42</v>
+        <v>263</v>
       </c>
       <c r="O7" s="34" t="n">
-        <v>488.96</v>
+        <v>0</v>
       </c>
       <c r="P7" s="34" t="n">
-        <v>64.38</v>
+        <v>31.76</v>
       </c>
       <c r="Q7" s="35" t="n">
-        <v>10.57</v>
+        <v>0</v>
       </c>
       <c r="R7" s="35" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S7" s="35" t="n">
         <v>0</v>
       </c>
       <c r="T7" s="35" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="U7" s="35" t="n">
         <v>0</v>
@@ -1540,40 +1540,40 @@
         <v>0</v>
       </c>
       <c r="AA7" s="36" t="n">
-        <v>46.11</v>
+        <v>123.45</v>
       </c>
       <c r="AB7" s="36" t="n">
-        <v>23.81</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="37" t="n">
-        <v>21646.25</v>
+        <v>5219.2525</v>
       </c>
       <c r="AD7" s="38" t="n">
-        <v>0</v>
+        <v>2002.4275</v>
       </c>
       <c r="AE7" s="17" t="n">
-        <v>0</v>
+        <v>37805.8312</v>
       </c>
       <c r="AF7" s="19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>15-02-2023</t>
         </is>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="13" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>23SAN01</t>
+          <t>23AOTEC01</t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">
@@ -1588,61 +1588,61 @@
       </c>
       <c r="F8" s="32" t="inlineStr">
         <is>
-          <t>31-01-2023</t>
+          <t>08-03-2023</t>
         </is>
       </c>
       <c r="G8" s="32" t="inlineStr">
         <is>
-          <t>27-02-2023</t>
+          <t>07-04-2023</t>
         </is>
       </c>
       <c r="H8" s="12" t="inlineStr">
         <is>
-          <t>Ante Drazic - HR</t>
+          <t>Oday Mosalam - Germany</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t>FCA</t>
+          <t>CFR</t>
         </is>
       </c>
       <c r="K8" s="33" t="n">
-        <v>12350.24</v>
+        <v>15651.92</v>
       </c>
       <c r="L8" s="34" t="n">
-        <v>7994.204</v>
+        <v>0</v>
       </c>
       <c r="M8" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="34" t="n">
-        <v>1974</v>
+        <v>10159.4688</v>
       </c>
       <c r="O8" s="34" t="n">
-        <v>0</v>
+        <v>423.99</v>
       </c>
       <c r="P8" s="34" t="n">
-        <v>38.44</v>
+        <v>46.4</v>
       </c>
       <c r="Q8" s="35" t="n">
         <v>0</v>
       </c>
       <c r="R8" s="35" t="n">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="S8" s="35" t="n">
         <v>0</v>
       </c>
       <c r="T8" s="35" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="U8" s="35" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="V8" s="35" t="n">
         <v>0</v>
@@ -1660,40 +1660,40 @@
         <v>0</v>
       </c>
       <c r="AA8" s="36" t="n">
-        <v>62.22</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="36" t="n">
-        <v>0</v>
+        <v>21.49</v>
       </c>
       <c r="AC8" s="37" t="n">
-        <v>10068.864</v>
+        <v>11916.3488</v>
       </c>
       <c r="AD8" s="38" t="n">
-        <v>2281.376</v>
+        <v>3735.5712</v>
       </c>
       <c r="AE8" s="17" t="n">
-        <v>43140.82016</v>
+        <v>73030.41696</v>
       </c>
       <c r="AF8" s="19" t="inlineStr">
         <is>
-          <t>22-02-2023</t>
+          <t>08-05-2023</t>
         </is>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="13" t="inlineStr">
         <is>
+          <t>Mehmet</t>
+        </is>
+      </c>
+      <c r="B9" s="13" t="inlineStr">
+        <is>
           <t>Ozlem</t>
         </is>
       </c>
-      <c r="B9" s="13" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
       <c r="C9" s="13" t="inlineStr">
         <is>
-          <t>23ALIT05</t>
+          <t>23TSE01-2</t>
         </is>
       </c>
       <c r="D9" s="22" t="inlineStr">
@@ -1708,49 +1708,49 @@
       </c>
       <c r="F9" s="32" t="inlineStr">
         <is>
-          <t>02-02-2023</t>
+          <t>11-03-2023</t>
         </is>
       </c>
       <c r="G9" s="32" t="inlineStr">
         <is>
-          <t>27-02-2023</t>
+          <t>08-04-2023</t>
         </is>
       </c>
       <c r="H9" s="12" t="inlineStr">
         <is>
-          <t>Branislav Mikulovsky - Slovakia</t>
+          <t>Kwabena Osei - Ghana</t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
-          <t>FOB</t>
+          <t>CFR</t>
         </is>
       </c>
       <c r="K9" s="33" t="n">
-        <v>9391.370000000001</v>
+        <v>37563.61</v>
       </c>
       <c r="L9" s="34" t="n">
-        <v>8396.424000000001</v>
+        <v>0</v>
       </c>
       <c r="M9" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N9" s="34" t="n">
-        <v>46.17</v>
+        <v>22057.92</v>
       </c>
       <c r="O9" s="34" t="n">
-        <v>256.78</v>
+        <v>0</v>
       </c>
       <c r="P9" s="34" t="n">
-        <v>41.73</v>
+        <v>70.73999999999999</v>
       </c>
       <c r="Q9" s="35" t="n">
-        <v>0</v>
+        <v>10.32</v>
       </c>
       <c r="R9" s="35" t="n">
         <v>400</v>
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="35" t="n">
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="U9" s="35" t="n">
         <v>0</v>
@@ -1780,1675 +1780,5541 @@
         <v>0</v>
       </c>
       <c r="AA9" s="36" t="n">
-        <v>30.71</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="36" t="n">
-        <v>0</v>
+        <v>24.55</v>
       </c>
       <c r="AC9" s="37" t="n">
-        <v>9171.814</v>
+        <v>23451.27</v>
       </c>
       <c r="AD9" s="38" t="n">
-        <v>219.556</v>
+        <v>14112.34</v>
       </c>
       <c r="AE9" s="17" t="n">
-        <v>4169.36844</v>
+        <v>303838.6802</v>
       </c>
       <c r="AF9" s="19" t="inlineStr">
         <is>
-          <t>09-03-2023</t>
+          <t>06-06-2023</t>
         </is>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="13" t="inlineStr">
         <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B10" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C10" s="13" t="inlineStr">
+        <is>
+          <t>23VEIK90</t>
+        </is>
+      </c>
+      <c r="D10" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E10" s="22" t="n"/>
+      <c r="F10" s="32" t="inlineStr">
+        <is>
+          <t>19-01-2023</t>
+        </is>
+      </c>
+      <c r="G10" s="32" t="inlineStr">
+        <is>
+          <t>15-04-2023</t>
+        </is>
+      </c>
+      <c r="H10" s="12" t="inlineStr">
+        <is>
+          <t>VEIK - UAE</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K10" s="33" t="n">
+        <v>28715.4</v>
+      </c>
+      <c r="L10" s="34" t="n">
+        <v>15657.3</v>
+      </c>
+      <c r="M10" s="34" t="n">
+        <v>7470.225</v>
+      </c>
+      <c r="N10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="34" t="n">
+        <v>500.01</v>
+      </c>
+      <c r="P10" s="34" t="n">
+        <v>67.66</v>
+      </c>
+      <c r="Q10" s="35" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="R10" s="35" t="n">
+        <v>800</v>
+      </c>
+      <c r="S10" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="35" t="n">
+        <v>520</v>
+      </c>
+      <c r="U10" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="36" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="AB10" s="36" t="n">
+        <v>21.78</v>
+      </c>
+      <c r="AC10" s="37" t="n">
+        <v>25125.625</v>
+      </c>
+      <c r="AD10" s="38" t="n">
+        <v>3589.775</v>
+      </c>
+      <c r="AE10" s="17" t="n">
+        <v>71544.21575</v>
+      </c>
+      <c r="AF10" s="19" t="inlineStr">
+        <is>
+          <t>24-05-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B11" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C11" s="13" t="inlineStr">
+        <is>
+          <t>23COME06</t>
+        </is>
+      </c>
+      <c r="D11" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E11" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F11" s="32" t="inlineStr">
+        <is>
+          <t>03-04-2023</t>
+        </is>
+      </c>
+      <c r="G11" s="32" t="inlineStr">
+        <is>
+          <t>17-04-2023</t>
+        </is>
+      </c>
+      <c r="H11" s="12" t="inlineStr">
+        <is>
+          <t>Gebran - Bahrain</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>Bahrain</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K11" s="33" t="n">
+        <v>17560.99</v>
+      </c>
+      <c r="L11" s="34" t="n">
+        <v>11063.156</v>
+      </c>
+      <c r="M11" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="34" t="n">
+        <v>263.9</v>
+      </c>
+      <c r="P11" s="34" t="n">
+        <v>48.18</v>
+      </c>
+      <c r="Q11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="35" t="n">
+        <v>400</v>
+      </c>
+      <c r="S11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="35" t="n">
+        <v>815</v>
+      </c>
+      <c r="U11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="36" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="AB11" s="36" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="AC11" s="37" t="n">
+        <v>12617.276</v>
+      </c>
+      <c r="AD11" s="38" t="n">
+        <v>4943.714</v>
+      </c>
+      <c r="AE11" s="17" t="n">
+        <v>96600.17155999999</v>
+      </c>
+      <c r="AF11" s="19" t="inlineStr">
+        <is>
+          <t>08-05-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B12" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C12" s="13" t="inlineStr">
+        <is>
+          <t>23FLOS47</t>
+        </is>
+      </c>
+      <c r="D12" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E12" s="22" t="inlineStr">
+        <is>
+          <t>Küçüker Makina</t>
+        </is>
+      </c>
+      <c r="F12" s="32" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
+      <c r="G12" s="32" t="inlineStr">
+        <is>
+          <t>17-04-2023</t>
+        </is>
+      </c>
+      <c r="H12" s="12" t="inlineStr">
+        <is>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>FOB</t>
+        </is>
+      </c>
+      <c r="K12" s="33" t="n">
+        <v>17777.06</v>
+      </c>
+      <c r="L12" s="34" t="n">
+        <v>11287.912</v>
+      </c>
+      <c r="M12" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="34" t="n">
+        <v>2631.34</v>
+      </c>
+      <c r="O12" s="34" t="n">
+        <v>251.86</v>
+      </c>
+      <c r="P12" s="34" t="n">
+        <v>60.12</v>
+      </c>
+      <c r="Q12" s="35" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="R12" s="35" t="n">
+        <v>400</v>
+      </c>
+      <c r="S12" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="36" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="AC12" s="37" t="n">
+        <v>14665.182</v>
+      </c>
+      <c r="AD12" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1">
+      <c r="A13" s="13" t="inlineStr">
+        <is>
           <t>Hakan</t>
         </is>
       </c>
-      <c r="B10" s="13" t="inlineStr">
+      <c r="B13" s="13" t="inlineStr">
         <is>
           <t>Hakan</t>
         </is>
       </c>
-      <c r="C10" s="13" t="inlineStr">
-        <is>
-          <t>23BRENT02</t>
-        </is>
-      </c>
-      <c r="D10" s="22" t="inlineStr">
+      <c r="C13" s="13" t="inlineStr">
+        <is>
+          <t>23BPO02</t>
+        </is>
+      </c>
+      <c r="D13" s="22" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="E10" s="22" t="inlineStr">
+      <c r="E13" s="22" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="F10" s="32" t="inlineStr">
-        <is>
-          <t>16-02-2023</t>
-        </is>
-      </c>
-      <c r="G10" s="32" t="inlineStr">
-        <is>
-          <t>27-02-2023</t>
-        </is>
-      </c>
-      <c r="H10" s="12" t="inlineStr">
-        <is>
-          <t>Brent Losey - USA</t>
-        </is>
-      </c>
-      <c r="I10" s="3" t="inlineStr">
+      <c r="F13" s="32" t="inlineStr">
+        <is>
+          <t>12-04-2023</t>
+        </is>
+      </c>
+      <c r="G13" s="32" t="inlineStr">
+        <is>
+          <t>18-04-2023</t>
+        </is>
+      </c>
+      <c r="H13" s="12" t="inlineStr">
+        <is>
+          <t>Alexander Endrody - Slovakia</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>FOB</t>
+        </is>
+      </c>
+      <c r="K13" s="33" t="n">
+        <v>1130.25</v>
+      </c>
+      <c r="L13" s="34" t="n">
+        <v>960.7125</v>
+      </c>
+      <c r="M13" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="34" t="n">
+        <v>76.56999999999999</v>
+      </c>
+      <c r="P13" s="34" t="n">
+        <v>24.88</v>
+      </c>
+      <c r="Q13" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="36" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="AB13" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="37" t="n">
+        <v>1106.8625</v>
+      </c>
+      <c r="AD13" s="38" t="n">
+        <v>23.3875</v>
+      </c>
+      <c r="AE13" s="17" t="n">
+        <v>454.653</v>
+      </c>
+      <c r="AF13" s="19" t="inlineStr">
+        <is>
+          <t>20-04-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1">
+      <c r="A14" s="13" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="B14" s="13" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C14" s="13" t="inlineStr">
+        <is>
+          <t>23DMH01</t>
+        </is>
+      </c>
+      <c r="D14" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E14" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F14" s="32" t="inlineStr">
+        <is>
+          <t>25-04-2023</t>
+        </is>
+      </c>
+      <c r="G14" s="32" t="inlineStr">
+        <is>
+          <t>28-04-2023</t>
+        </is>
+      </c>
+      <c r="H14" s="12" t="inlineStr">
+        <is>
+          <t>Manhal Najjar - Dubai</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>FCA</t>
+        </is>
+      </c>
+      <c r="K14" s="33" t="n">
+        <v>650</v>
+      </c>
+      <c r="L14" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="36" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="AB14" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="37" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="AD14" s="38" t="n">
+        <v>615.3</v>
+      </c>
+      <c r="AE14" s="17" t="n">
+        <v>11973.738</v>
+      </c>
+      <c r="AF14" s="19" t="inlineStr">
+        <is>
+          <t>25-04-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" s="13" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B15" s="13" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C15" s="13" t="inlineStr">
+        <is>
+          <t>23ATU03</t>
+        </is>
+      </c>
+      <c r="D15" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E15" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F15" s="32" t="inlineStr">
+        <is>
+          <t>22-03-2023</t>
+        </is>
+      </c>
+      <c r="G15" s="32" t="inlineStr">
+        <is>
+          <t>28-04-2023</t>
+        </is>
+      </c>
+      <c r="H15" s="12" t="inlineStr">
+        <is>
+          <t>Atu - Ghana</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K15" s="33" t="n">
+        <v>33660.6</v>
+      </c>
+      <c r="L15" s="34" t="n">
+        <v>19223.29954</v>
+      </c>
+      <c r="M15" s="34" t="n">
+        <v>2975</v>
+      </c>
+      <c r="N15" s="34" t="n">
+        <v>2400</v>
+      </c>
+      <c r="O15" s="34" t="n">
+        <v>256.73</v>
+      </c>
+      <c r="P15" s="34" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="Q15" s="35" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="R15" s="35" t="n">
+        <v>400</v>
+      </c>
+      <c r="S15" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" s="35" t="n">
+        <v>1100</v>
+      </c>
+      <c r="U15" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="36" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="AB15" s="36" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="AC15" s="37" t="n">
+        <v>26510.29954</v>
+      </c>
+      <c r="AD15" s="38" t="n">
+        <v>7150.30046</v>
+      </c>
+      <c r="AE15" s="17" t="n">
+        <v>136213.223763</v>
+      </c>
+      <c r="AF15" s="19" t="inlineStr">
+        <is>
+          <t>20-03-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="30" customHeight="1">
+      <c r="A16" s="13" t="inlineStr">
+        <is>
+          <t>Mehmet</t>
+        </is>
+      </c>
+      <c r="B16" s="13" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="C16" s="13" t="inlineStr">
+        <is>
+          <t>23TDWL01-1</t>
+        </is>
+      </c>
+      <c r="D16" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E16" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F16" s="32" t="inlineStr">
+        <is>
+          <t>05-04-2023</t>
+        </is>
+      </c>
+      <c r="G16" s="32" t="inlineStr">
+        <is>
+          <t>28-04-2023</t>
+        </is>
+      </c>
+      <c r="H16" s="12" t="inlineStr">
+        <is>
+          <t>Seth, TDWL - Ghana</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K16" s="33" t="n">
+        <v>31336.1</v>
+      </c>
+      <c r="L16" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="34" t="n">
+        <v>13843.05</v>
+      </c>
+      <c r="O16" s="34" t="n">
+        <v>255.07</v>
+      </c>
+      <c r="P16" s="34" t="n">
+        <v>60.78</v>
+      </c>
+      <c r="Q16" s="35" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="R16" s="35" t="n">
+        <v>400</v>
+      </c>
+      <c r="S16" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" s="35" t="n">
+        <v>1190</v>
+      </c>
+      <c r="U16" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="36" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB16" s="36" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="AC16" s="37" t="n">
+        <v>15795.37</v>
+      </c>
+      <c r="AD16" s="38" t="n">
+        <v>15540.73</v>
+      </c>
+      <c r="AE16" s="17" t="n">
+        <v>308794.3051</v>
+      </c>
+      <c r="AF16" s="19" t="inlineStr">
+        <is>
+          <t>22-05-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1">
+      <c r="A17" s="13" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="B17" s="13" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C17" s="13" t="inlineStr">
+        <is>
+          <t>23BRP10</t>
+        </is>
+      </c>
+      <c r="D17" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E17" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F17" s="32" t="inlineStr">
+        <is>
+          <t>09-03-2023</t>
+        </is>
+      </c>
+      <c r="G17" s="32" t="inlineStr">
+        <is>
+          <t>01-05-2023</t>
+        </is>
+      </c>
+      <c r="H17" s="12" t="inlineStr">
+        <is>
+          <t>Tracy - AU</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>FCA</t>
+        </is>
+      </c>
+      <c r="K17" s="33" t="n">
+        <v>11563.06</v>
+      </c>
+      <c r="L17" s="34" t="n">
+        <v>8328.351000000001</v>
+      </c>
+      <c r="M17" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="34" t="n">
+        <v>1153.74</v>
+      </c>
+      <c r="O17" s="34" t="n">
+        <v>249.16</v>
+      </c>
+      <c r="P17" s="34" t="n">
+        <v>43.17</v>
+      </c>
+      <c r="Q17" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="35" t="n">
+        <v>26</v>
+      </c>
+      <c r="V17" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="37" t="n">
+        <v>9800.421</v>
+      </c>
+      <c r="AD17" s="38" t="n">
+        <v>1762.639</v>
+      </c>
+      <c r="AE17" s="17" t="n">
+        <v>34406.71328</v>
+      </c>
+      <c r="AF17" s="19" t="inlineStr">
+        <is>
+          <t>03-05-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="30" customHeight="1">
+      <c r="A18" s="13" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="B18" s="13" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C18" s="13" t="inlineStr">
+        <is>
+          <t>23EURL01-1</t>
+        </is>
+      </c>
+      <c r="D18" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E18" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F18" s="32" t="inlineStr">
+        <is>
+          <t>07-03-2023</t>
+        </is>
+      </c>
+      <c r="G18" s="32" t="inlineStr">
+        <is>
+          <t>04-05-2023</t>
+        </is>
+      </c>
+      <c r="H18" s="21" t="inlineStr">
+        <is>
+          <t>Bruno Perre - France</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>DAP</t>
+        </is>
+      </c>
+      <c r="K18" s="33" t="n">
+        <v>25143.71</v>
+      </c>
+      <c r="L18" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="34" t="n">
+        <v>13064.208</v>
+      </c>
+      <c r="O18" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="34" t="n">
+        <v>45.38</v>
+      </c>
+      <c r="Q18" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="35" t="n">
+        <v>5237</v>
+      </c>
+      <c r="U18" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="36" t="n">
+        <v>60.76</v>
+      </c>
+      <c r="AB18" s="36" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="AC18" s="37" t="n">
+        <v>18419.528</v>
+      </c>
+      <c r="AD18" s="38" t="n">
+        <v>6724.182</v>
+      </c>
+      <c r="AE18" s="17" t="n">
+        <v>131793.9672</v>
+      </c>
+      <c r="AF18" s="19" t="inlineStr">
+        <is>
+          <t>12-05-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="30" customHeight="1">
+      <c r="A19" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B19" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C19" s="13" t="inlineStr">
+        <is>
+          <t>23SEAN07</t>
+        </is>
+      </c>
+      <c r="D19" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E19" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F19" s="32" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="G19" s="32" t="inlineStr">
+        <is>
+          <t>08-05-2023</t>
+        </is>
+      </c>
+      <c r="H19" s="22" t="inlineStr">
+        <is>
+          <t>Sean - MALTA</t>
+        </is>
+      </c>
+      <c r="I19" s="12" t="inlineStr">
+        <is>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>FOB</t>
+        </is>
+      </c>
+      <c r="K19" s="33" t="n">
+        <v>10361.7</v>
+      </c>
+      <c r="L19" s="34" t="n">
+        <v>898.295</v>
+      </c>
+      <c r="M19" s="34" t="n">
+        <v>408</v>
+      </c>
+      <c r="N19" s="34" t="n">
+        <v>3251.75</v>
+      </c>
+      <c r="O19" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="34" t="n">
+        <v>42.26</v>
+      </c>
+      <c r="Q19" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="36" t="n">
+        <v>260</v>
+      </c>
+      <c r="AA19" s="36" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="AB19" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="37" t="n">
+        <v>4891.145</v>
+      </c>
+      <c r="AD19" s="38" t="n">
+        <v>5470.555</v>
+      </c>
+      <c r="AE19" s="17" t="n">
+        <v>107222.878</v>
+      </c>
+      <c r="AF19" s="19" t="inlineStr">
+        <is>
+          <t>11-05-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="34.8" customHeight="1">
+      <c r="A20" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B20" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C20" s="13" t="inlineStr">
+        <is>
+          <t>22MTT02 - 2</t>
+        </is>
+      </c>
+      <c r="D20" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E20" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F20" s="32" t="inlineStr">
+        <is>
+          <t>10-10-2022</t>
+        </is>
+      </c>
+      <c r="G20" s="32" t="inlineStr">
+        <is>
+          <t>09-05-2023</t>
+        </is>
+      </c>
+      <c r="H20" s="22" t="inlineStr">
+        <is>
+          <t>Tayyar Yüzgeç - Turkey</t>
+        </is>
+      </c>
+      <c r="I20" s="12" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="J20" s="9" t="inlineStr">
+        <is>
+          <t>EXW</t>
+        </is>
+      </c>
+      <c r="K20" s="33" t="n">
+        <v>8958.82</v>
+      </c>
+      <c r="L20" s="34" t="n">
+        <v>7093.55</v>
+      </c>
+      <c r="M20" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="34" t="n">
+        <v>420.85</v>
+      </c>
+      <c r="P20" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="35" t="n">
+        <v>423.27</v>
+      </c>
+      <c r="X20" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="37" t="n">
+        <v>7937.67</v>
+      </c>
+      <c r="AD20" s="38" t="n">
+        <v>1021.15</v>
+      </c>
+      <c r="AE20" s="17" t="n">
+        <v>20045.1745</v>
+      </c>
+      <c r="AF20" s="19" t="inlineStr">
+        <is>
+          <t>12-05-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="30" customHeight="1">
+      <c r="A21" s="28" t="inlineStr">
+        <is>
+          <t>İP</t>
+        </is>
+      </c>
+      <c r="B21" s="28" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="C21" s="28" t="inlineStr">
+        <is>
+          <t>23PK3000-1</t>
+        </is>
+      </c>
+      <c r="D21" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E21" s="30" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="F21" s="31" t="inlineStr">
+        <is>
+          <t>12-04-2023</t>
+        </is>
+      </c>
+      <c r="G21" s="31" t="inlineStr">
+        <is>
+          <t>10-05-2023</t>
+        </is>
+      </c>
+      <c r="H21" s="22" t="inlineStr">
+        <is>
+          <t>Cem-Mer (PEKER)</t>
+        </is>
+      </c>
+      <c r="I21" s="12" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="J21" s="9" t="inlineStr">
+        <is>
+          <t>EXW</t>
+        </is>
+      </c>
+      <c r="K21" s="33" t="n">
+        <v>5358.6</v>
+      </c>
+      <c r="L21" s="34" t="n">
+        <v>4556.0008</v>
+      </c>
+      <c r="M21" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="37" t="n">
+        <v>4556.0008</v>
+      </c>
+      <c r="AD21" s="38" t="n">
+        <v>802.5992</v>
+      </c>
+      <c r="AE21" s="17" t="n">
+        <v>16027.906024</v>
+      </c>
+      <c r="AF21" s="19" t="inlineStr">
+        <is>
+          <t>25-05-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="30" customHeight="1">
+      <c r="A22" s="28" t="inlineStr">
+        <is>
+          <t>Mehmet</t>
+        </is>
+      </c>
+      <c r="B22" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C22" s="28" t="inlineStr">
+        <is>
+          <t>23TSE01-3</t>
+        </is>
+      </c>
+      <c r="D22" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E22" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F22" s="31" t="inlineStr">
+        <is>
+          <t>11-03-2023</t>
+        </is>
+      </c>
+      <c r="G22" s="31" t="inlineStr">
+        <is>
+          <t>15-05-2023</t>
+        </is>
+      </c>
+      <c r="H22" s="22" t="inlineStr">
+        <is>
+          <t>Kwabena Osei - Ghana</t>
+        </is>
+      </c>
+      <c r="I22" s="12" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="J22" s="9" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K22" s="33" t="n">
+        <v>32928.03</v>
+      </c>
+      <c r="L22" s="34" t="n">
+        <v>5749.145</v>
+      </c>
+      <c r="M22" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="34" t="n">
+        <v>15685.0033</v>
+      </c>
+      <c r="O22" s="34" t="n">
+        <v>482.15</v>
+      </c>
+      <c r="P22" s="34" t="n">
+        <v>62.06</v>
+      </c>
+      <c r="Q22" s="35" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="R22" s="35" t="n">
+        <v>400</v>
+      </c>
+      <c r="S22" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" s="35" t="n">
+        <v>900</v>
+      </c>
+      <c r="U22" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="36" t="n">
+        <v>52.48</v>
+      </c>
+      <c r="AB22" s="36" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="AC22" s="37" t="n">
+        <v>23372.9483</v>
+      </c>
+      <c r="AD22" s="38" t="n">
+        <v>9555.081700000001</v>
+      </c>
+      <c r="AE22" s="17" t="n">
+        <v>205720.909001</v>
+      </c>
+      <c r="AF22" s="19" t="inlineStr">
+        <is>
+          <t>06-06-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="30" customHeight="1">
+      <c r="A23" s="28" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B23" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C23" s="28" t="inlineStr">
+        <is>
+          <t>23VEIK91</t>
+        </is>
+      </c>
+      <c r="D23" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E23" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F23" s="31" t="inlineStr">
+        <is>
+          <t>22-03-2023</t>
+        </is>
+      </c>
+      <c r="G23" s="31" t="inlineStr">
+        <is>
+          <t>15-05-2023</t>
+        </is>
+      </c>
+      <c r="H23" s="22" t="inlineStr">
+        <is>
+          <t>VEIK - UAE</t>
+        </is>
+      </c>
+      <c r="I23" s="12" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="J23" s="9" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K23" s="33" t="n">
+        <v>28335.41</v>
+      </c>
+      <c r="L23" s="34" t="n">
+        <v>15135.39</v>
+      </c>
+      <c r="M23" s="34" t="n">
+        <v>7656.579</v>
+      </c>
+      <c r="N23" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="34" t="n">
+        <v>490.27</v>
+      </c>
+      <c r="P23" s="34" t="n">
+        <v>66.29000000000001</v>
+      </c>
+      <c r="Q23" s="35" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="R23" s="35" t="n">
+        <v>800</v>
+      </c>
+      <c r="S23" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" s="35" t="n">
+        <v>400</v>
+      </c>
+      <c r="U23" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="36" t="n">
+        <v>52.22</v>
+      </c>
+      <c r="AB23" s="36" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="AC23" s="37" t="n">
+        <v>24657.469</v>
+      </c>
+      <c r="AD23" s="38" t="n">
+        <v>3677.941</v>
+      </c>
+      <c r="AE23" s="17" t="n">
+        <v>87240.76052</v>
+      </c>
+      <c r="AF23" s="19" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="30" customHeight="1">
+      <c r="A24" s="28" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B24" s="28" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C24" s="28" t="inlineStr">
+        <is>
+          <t>23PM03-1</t>
+        </is>
+      </c>
+      <c r="D24" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E24" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F24" s="31" t="inlineStr">
+        <is>
+          <t>24-04-2023</t>
+        </is>
+      </c>
+      <c r="G24" s="31" t="inlineStr">
+        <is>
+          <t>17-05-2023</t>
+        </is>
+      </c>
+      <c r="H24" s="22" t="inlineStr">
+        <is>
+          <t>Patrick - Germany</t>
+        </is>
+      </c>
+      <c r="I24" s="12" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J24" s="9" t="inlineStr">
+        <is>
+          <t>DAP</t>
+        </is>
+      </c>
+      <c r="K24" s="33" t="n">
+        <v>6190.8</v>
+      </c>
+      <c r="L24" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="34" t="n">
+        <v>3222.18</v>
+      </c>
+      <c r="N24" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="34" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="Q24" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" s="35" t="n">
+        <v>1490.67</v>
+      </c>
+      <c r="U24" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="36" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AB24" s="36" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="AC24" s="37" t="n">
+        <v>4754.42</v>
+      </c>
+      <c r="AD24" s="38" t="n">
+        <v>1436.38</v>
+      </c>
+      <c r="AE24" s="17" t="n">
+        <v>28627.0534</v>
+      </c>
+      <c r="AF24" s="19" t="inlineStr">
+        <is>
+          <t>24-05-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="30" customHeight="1">
+      <c r="A25" s="28" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B25" s="28" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C25" s="28" t="inlineStr">
+        <is>
+          <t>23ANDR01</t>
+        </is>
+      </c>
+      <c r="D25" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E25" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F25" s="31" t="inlineStr">
+        <is>
+          <t>12-04-2023</t>
+        </is>
+      </c>
+      <c r="G25" s="31" t="inlineStr">
+        <is>
+          <t>20-05-2023</t>
+        </is>
+      </c>
+      <c r="H25" s="22" t="inlineStr">
+        <is>
+          <t>Andrey &amp; Sergey - RU</t>
+        </is>
+      </c>
+      <c r="I25" s="12" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="J25" s="9" t="inlineStr">
+        <is>
+          <t>FOB</t>
+        </is>
+      </c>
+      <c r="K25" s="33" t="n">
+        <v>14001.12</v>
+      </c>
+      <c r="L25" s="34" t="n">
+        <v>11900.952</v>
+      </c>
+      <c r="M25" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="34" t="n">
+        <v>243.91</v>
+      </c>
+      <c r="P25" s="34" t="n">
+        <v>44.99</v>
+      </c>
+      <c r="Q25" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" s="35" t="n">
+        <v>435</v>
+      </c>
+      <c r="S25" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="36" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB25" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="37" t="n">
+        <v>12637.642</v>
+      </c>
+      <c r="AD25" s="38" t="n">
+        <v>1363.478</v>
+      </c>
+      <c r="AE25" s="17" t="n">
+        <v>28264.89894</v>
+      </c>
+      <c r="AF25" s="19" t="inlineStr">
+        <is>
+          <t>31-05-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="30" customHeight="1">
+      <c r="A26" s="28" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="B26" s="28" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C26" s="28" t="inlineStr">
+        <is>
+          <t>23EURL01-2</t>
+        </is>
+      </c>
+      <c r="D26" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E26" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F26" s="31" t="inlineStr">
+        <is>
+          <t>07-03-2023</t>
+        </is>
+      </c>
+      <c r="G26" s="31" t="inlineStr">
+        <is>
+          <t>22-05-2023</t>
+        </is>
+      </c>
+      <c r="H26" s="22" t="inlineStr">
+        <is>
+          <t>Bruno Perre - France</t>
+        </is>
+      </c>
+      <c r="I26" s="12" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="J26" s="9" t="inlineStr">
+        <is>
+          <t>DAP</t>
+        </is>
+      </c>
+      <c r="K26" s="33" t="n">
+        <v>28948.86</v>
+      </c>
+      <c r="L26" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="34" t="n">
+        <v>20514.87</v>
+      </c>
+      <c r="O26" s="34" t="n">
+        <v>301.96</v>
+      </c>
+      <c r="P26" s="34" t="n">
+        <v>57.88</v>
+      </c>
+      <c r="Q26" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" s="35" t="n">
+        <v>400</v>
+      </c>
+      <c r="S26" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" s="35" t="n">
+        <v>2473.5</v>
+      </c>
+      <c r="U26" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="36" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AB26" s="36" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="AC26" s="37" t="n">
+        <v>23770.19</v>
+      </c>
+      <c r="AD26" s="38" t="n">
+        <v>5178.67</v>
+      </c>
+      <c r="AE26" s="17" t="n">
+        <v>107819.9094</v>
+      </c>
+      <c r="AF26" s="19" t="inlineStr">
+        <is>
+          <t>01-06-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="30" customHeight="1">
+      <c r="A27" s="28" t="inlineStr">
+        <is>
+          <t>İP</t>
+        </is>
+      </c>
+      <c r="B27" s="28" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="C27" s="28" t="inlineStr">
+        <is>
+          <t>23PK3000-2</t>
+        </is>
+      </c>
+      <c r="D27" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E27" s="30" t="inlineStr">
+        <is>
+          <t>Mekmer</t>
+        </is>
+      </c>
+      <c r="F27" s="31" t="inlineStr">
+        <is>
+          <t>12-04-2023</t>
+        </is>
+      </c>
+      <c r="G27" s="31" t="inlineStr">
+        <is>
+          <t>23-05-2023</t>
+        </is>
+      </c>
+      <c r="H27" s="22" t="inlineStr">
+        <is>
+          <t>Cem-Mer (PEKER)</t>
+        </is>
+      </c>
+      <c r="I27" s="12" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="inlineStr">
+        <is>
+          <t>EXW</t>
+        </is>
+      </c>
+      <c r="K27" s="33" t="n">
+        <v>4018.95</v>
+      </c>
+      <c r="L27" s="34" t="n">
+        <v>3417.0006</v>
+      </c>
+      <c r="M27" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="37" t="n">
+        <v>3417.0006</v>
+      </c>
+      <c r="AD27" s="38" t="n">
+        <v>601.9494</v>
+      </c>
+      <c r="AE27" s="17" t="n">
+        <v>12020.929518</v>
+      </c>
+      <c r="AF27" s="19" t="inlineStr">
+        <is>
+          <t>25-05-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="30" customHeight="1">
+      <c r="A28" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B28" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C28" s="28" t="inlineStr">
+        <is>
+          <t>23SHK06-1</t>
+        </is>
+      </c>
+      <c r="D28" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E28" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F28" s="31" t="inlineStr">
+        <is>
+          <t>01-03-2023</t>
+        </is>
+      </c>
+      <c r="G28" s="31" t="inlineStr">
+        <is>
+          <t>24-05-2023</t>
+        </is>
+      </c>
+      <c r="H28" s="22" t="inlineStr">
+        <is>
+          <t>Sheikh - UAE</t>
+        </is>
+      </c>
+      <c r="I28" s="12" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="J28" s="9" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K28" s="33" t="n">
+        <v>83485.44</v>
+      </c>
+      <c r="L28" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="34" t="n">
+        <v>49123.81</v>
+      </c>
+      <c r="O28" s="34" t="n">
+        <v>487.81</v>
+      </c>
+      <c r="P28" s="34" t="n">
+        <v>125.5</v>
+      </c>
+      <c r="Q28" s="35" t="n">
+        <v>27.35</v>
+      </c>
+      <c r="R28" s="35" t="n">
+        <v>900</v>
+      </c>
+      <c r="S28" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" s="35" t="n">
+        <v>535</v>
+      </c>
+      <c r="U28" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="36" t="n">
+        <v>39.66</v>
+      </c>
+      <c r="AB28" s="36" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="AC28" s="37" t="n">
+        <v>51275.26</v>
+      </c>
+      <c r="AD28" s="38" t="n">
+        <v>32210.18</v>
+      </c>
+      <c r="AE28" s="17" t="n">
+        <v>764025.4696</v>
+      </c>
+      <c r="AF28" s="19" t="inlineStr">
+        <is>
+          <t>19-06-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="30" customHeight="1">
+      <c r="A29" s="28" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B29" s="28" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C29" s="28" t="inlineStr">
+        <is>
+          <t>23PM03-2</t>
+        </is>
+      </c>
+      <c r="D29" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E29" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F29" s="31" t="inlineStr">
+        <is>
+          <t>24-04-2023</t>
+        </is>
+      </c>
+      <c r="G29" s="31" t="inlineStr">
+        <is>
+          <t>29-05-2023</t>
+        </is>
+      </c>
+      <c r="H29" s="22" t="inlineStr">
+        <is>
+          <t>Patrick - Germany</t>
+        </is>
+      </c>
+      <c r="I29" s="12" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J29" s="9" t="inlineStr">
+        <is>
+          <t>FOB</t>
+        </is>
+      </c>
+      <c r="K29" s="33" t="n">
+        <v>32694.75</v>
+      </c>
+      <c r="L29" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="34" t="n">
+        <v>24848.01</v>
+      </c>
+      <c r="O29" s="34" t="n">
+        <v>313.25</v>
+      </c>
+      <c r="P29" s="34" t="n">
+        <v>63.94</v>
+      </c>
+      <c r="Q29" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" s="35" t="n">
+        <v>400</v>
+      </c>
+      <c r="S29" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="36" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AB29" s="36" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="AC29" s="37" t="n">
+        <v>25646.34</v>
+      </c>
+      <c r="AD29" s="38" t="n">
+        <v>7048.41</v>
+      </c>
+      <c r="AE29" s="17" t="n">
+        <v>164932.794</v>
+      </c>
+      <c r="AF29" s="19" t="inlineStr">
+        <is>
+          <t>08-06-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="30" customHeight="1">
+      <c r="A30" s="28" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B30" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C30" s="28" t="inlineStr">
+        <is>
+          <t>23RA02</t>
+        </is>
+      </c>
+      <c r="D30" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E30" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F30" s="31" t="inlineStr">
+        <is>
+          <t>19-04-2023</t>
+        </is>
+      </c>
+      <c r="G30" s="31" t="inlineStr">
+        <is>
+          <t>30-05-2023</t>
+        </is>
+      </c>
+      <c r="H30" s="22" t="inlineStr">
+        <is>
+          <t>Robert - Bahamas</t>
+        </is>
+      </c>
+      <c r="I30" s="12" t="inlineStr">
+        <is>
+          <t>Bahamas</t>
+        </is>
+      </c>
+      <c r="J30" s="9" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K30" s="33" t="n">
+        <v>31662.36</v>
+      </c>
+      <c r="L30" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="34" t="n">
+        <v>18883.202</v>
+      </c>
+      <c r="O30" s="34" t="n">
+        <v>412.78</v>
+      </c>
+      <c r="P30" s="34" t="n">
+        <v>51.82</v>
+      </c>
+      <c r="Q30" s="35" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="R30" s="35" t="n">
+        <v>475</v>
+      </c>
+      <c r="S30" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" s="35" t="n">
+        <v>3150</v>
+      </c>
+      <c r="U30" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="36" t="n">
+        <v>37.71</v>
+      </c>
+      <c r="AB30" s="36" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="AC30" s="37" t="n">
+        <v>23079.542</v>
+      </c>
+      <c r="AD30" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="30" customHeight="1">
+      <c r="A31" s="28" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B31" s="28" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C31" s="28" t="inlineStr">
+        <is>
+          <t>23PM03-3</t>
+        </is>
+      </c>
+      <c r="D31" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E31" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F31" s="31" t="inlineStr">
+        <is>
+          <t>24-04-2023</t>
+        </is>
+      </c>
+      <c r="G31" s="31" t="inlineStr">
+        <is>
+          <t>02-06-2023</t>
+        </is>
+      </c>
+      <c r="H31" s="22" t="inlineStr">
+        <is>
+          <t>Patrick - Germany</t>
+        </is>
+      </c>
+      <c r="I31" s="12" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="inlineStr">
+        <is>
+          <t>DAP</t>
+        </is>
+      </c>
+      <c r="K31" s="33" t="n">
+        <v>19857.45</v>
+      </c>
+      <c r="L31" s="34" t="n">
+        <v>2305.8</v>
+      </c>
+      <c r="M31" s="34" t="n">
+        <v>9893.362499999999</v>
+      </c>
+      <c r="N31" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="34" t="n">
+        <v>37.28</v>
+      </c>
+      <c r="Q31" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" s="35" t="n">
+        <v>4523</v>
+      </c>
+      <c r="U31" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="36" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC31" s="37" t="n">
+        <v>16771.1925</v>
+      </c>
+      <c r="AD31" s="38" t="n">
+        <v>3086.2575</v>
+      </c>
+      <c r="AE31" s="17" t="n">
+        <v>72218.4255</v>
+      </c>
+      <c r="AF31" s="19" t="inlineStr">
+        <is>
+          <t>08-06-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="30" customHeight="1">
+      <c r="A32" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B32" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C32" s="28" t="inlineStr">
+        <is>
+          <t>23MTT05</t>
+        </is>
+      </c>
+      <c r="D32" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E32" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F32" s="31" t="inlineStr">
+        <is>
+          <t>30-05-2023</t>
+        </is>
+      </c>
+      <c r="G32" s="31" t="inlineStr">
+        <is>
+          <t>08-06-2023</t>
+        </is>
+      </c>
+      <c r="H32" s="22" t="inlineStr">
+        <is>
+          <t>Tayyar Yüzgeç - Turkey</t>
+        </is>
+      </c>
+      <c r="I32" s="12" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="inlineStr">
+        <is>
+          <t>EXW</t>
+        </is>
+      </c>
+      <c r="K32" s="33" t="n">
+        <v>1864.32</v>
+      </c>
+      <c r="L32" s="34" t="n">
+        <v>1222.7655</v>
+      </c>
+      <c r="M32" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="37" t="n">
+        <v>1222.7655</v>
+      </c>
+      <c r="AD32" s="38" t="n">
+        <v>641.5545</v>
+      </c>
+      <c r="AE32" s="17" t="n">
+        <v>13812.668385</v>
+      </c>
+      <c r="AF32" s="19" t="inlineStr">
+        <is>
+          <t>06-06-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="30" customHeight="1">
+      <c r="A33" s="28" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B33" s="28" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C33" s="28" t="inlineStr">
+        <is>
+          <t>23WS27</t>
+        </is>
+      </c>
+      <c r="D33" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E33" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F33" s="31" t="inlineStr">
+        <is>
+          <t>08-06-2023</t>
+        </is>
+      </c>
+      <c r="G33" s="31" t="inlineStr">
+        <is>
+          <t>08-06-2023</t>
+        </is>
+      </c>
+      <c r="H33" s="22" t="inlineStr">
+        <is>
+          <t>Radu &amp; Eugen - USA</t>
+        </is>
+      </c>
+      <c r="I33" s="12" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="J10" s="3" t="inlineStr">
+      <c r="J33" s="9" t="inlineStr">
         <is>
           <t>DDP</t>
         </is>
       </c>
-      <c r="K10" s="33" t="n">
-        <v>1503.98</v>
-      </c>
-      <c r="L10" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="34" t="n">
-        <v>869.4634</v>
-      </c>
-      <c r="O10" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="35" t="n">
-        <v>460.24</v>
-      </c>
-      <c r="U10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="36" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AB10" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="37" t="n">
-        <v>1340.4534</v>
-      </c>
-      <c r="AD10" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="19" t="inlineStr">
+      <c r="K33" s="33" t="n">
+        <v>2069.98</v>
+      </c>
+      <c r="L33" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="34" t="n">
+        <v>1638.2016</v>
+      </c>
+      <c r="O33" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="37" t="n">
+        <v>1638.2016</v>
+      </c>
+      <c r="AD33" s="38" t="n">
+        <v>431.7784</v>
+      </c>
+      <c r="AE33" s="17" t="n">
+        <v>9974.081040000001</v>
+      </c>
+      <c r="AF33" s="19" t="inlineStr">
+        <is>
+          <t>07-06-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="30" customHeight="1">
+      <c r="A34" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B34" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C34" s="28" t="inlineStr">
+        <is>
+          <t>23MTT04</t>
+        </is>
+      </c>
+      <c r="D34" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E34" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F34" s="31" t="inlineStr">
+        <is>
+          <t>05-05-2023</t>
+        </is>
+      </c>
+      <c r="G34" s="31" t="inlineStr">
+        <is>
+          <t>08-06-2023</t>
+        </is>
+      </c>
+      <c r="H34" s="22" t="inlineStr">
+        <is>
+          <t>Tayyar Yüzgeç - Turkey</t>
+        </is>
+      </c>
+      <c r="I34" s="12" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>EXW</t>
+        </is>
+      </c>
+      <c r="K34" s="33" t="n">
+        <v>4154.63</v>
+      </c>
+      <c r="L34" s="34" t="n">
+        <v>944</v>
+      </c>
+      <c r="M34" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="34" t="n">
+        <v>149.58</v>
+      </c>
+      <c r="P34" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="36" t="n">
+        <v>688</v>
+      </c>
+      <c r="AA34" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="37" t="n">
+        <v>1781.58</v>
+      </c>
+      <c r="AD34" s="38" t="n">
+        <v>2373.05</v>
+      </c>
+      <c r="AE34" s="17" t="n">
+        <v>48362.759</v>
+      </c>
+      <c r="AF34" s="19" t="inlineStr">
+        <is>
+          <t>30-05-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="30" customHeight="1">
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>23RGL04</t>
+        </is>
+      </c>
+      <c r="D35" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E35" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F35" s="31" t="inlineStr">
+        <is>
+          <t>05-05-2023</t>
+        </is>
+      </c>
+      <c r="G35" s="31" t="inlineStr">
+        <is>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="H35" s="22" t="inlineStr">
+        <is>
+          <t>Ben Persell Thompson - UK</t>
+        </is>
+      </c>
+      <c r="I35" s="12" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>FCA</t>
+        </is>
+      </c>
+      <c r="K35" s="33" t="n">
+        <v>5887.97</v>
+      </c>
+      <c r="L35" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="34" t="n">
+        <v>4478.01326</v>
+      </c>
+      <c r="O35" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="34" t="n">
+        <v>33.24</v>
+      </c>
+      <c r="Q35" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="36" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AB35" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="37" t="n">
+        <v>4513.95326</v>
+      </c>
+      <c r="AD35" s="38" t="n">
+        <v>1374.01674</v>
+      </c>
+      <c r="AE35" s="17" t="n">
+        <v>26834.5469322</v>
+      </c>
+      <c r="AF35" s="19" t="inlineStr">
+        <is>
+          <t>04-05-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="30" customHeight="1">
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>23RGL05</t>
+        </is>
+      </c>
+      <c r="D36" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E36" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F36" s="31" t="inlineStr">
+        <is>
+          <t>05-05-2023</t>
+        </is>
+      </c>
+      <c r="G36" s="31" t="inlineStr">
+        <is>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="H36" s="22" t="inlineStr">
+        <is>
+          <t>Ben Persell Thompson - UK</t>
+        </is>
+      </c>
+      <c r="I36" s="12" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>FCA</t>
+        </is>
+      </c>
+      <c r="K36" s="33" t="n">
+        <v>11163.35</v>
+      </c>
+      <c r="L36" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="34" t="n">
+        <v>5295.35713</v>
+      </c>
+      <c r="O36" s="34" t="n">
+        <v>448.75</v>
+      </c>
+      <c r="P36" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" s="35" t="n">
+        <v>2672</v>
+      </c>
+      <c r="U36" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="36" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AB36" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="37" t="n">
+        <v>8418.58713</v>
+      </c>
+      <c r="AD36" s="38" t="n">
+        <v>2744.76287</v>
+      </c>
+      <c r="AE36" s="17" t="n">
+        <v>59094.7445911</v>
+      </c>
+      <c r="AF36" s="19" t="inlineStr">
+        <is>
+          <t>06-06-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="30" customHeight="1">
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>22AURA01-3</t>
+        </is>
+      </c>
+      <c r="D37" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E37" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F37" s="31" t="inlineStr">
+        <is>
+          <t>25-11-2022</t>
+        </is>
+      </c>
+      <c r="G37" s="31" t="inlineStr">
+        <is>
+          <t>10-06-2023</t>
+        </is>
+      </c>
+      <c r="H37" s="22" t="inlineStr">
+        <is>
+          <t>Carl Max - Ghana</t>
+        </is>
+      </c>
+      <c r="I37" s="12" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K37" s="33" t="n">
+        <v>16347.72</v>
+      </c>
+      <c r="L37" s="34" t="n">
+        <v>968.3</v>
+      </c>
+      <c r="M37" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="34" t="n">
+        <v>10663.107362</v>
+      </c>
+      <c r="O37" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" s="34" t="n">
+        <v>36.11</v>
+      </c>
+      <c r="Q37" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" s="35" t="n">
+        <v>400</v>
+      </c>
+      <c r="S37" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" s="35" t="n">
+        <v>980</v>
+      </c>
+      <c r="U37" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="36" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="AC37" s="37" t="n">
+        <v>13071.737362</v>
+      </c>
+      <c r="AD37" s="38" t="n">
+        <v>3275.982638</v>
+      </c>
+      <c r="AE37" s="17" t="n">
+        <v>61260.8753306</v>
+      </c>
+      <c r="AF37" s="19" t="inlineStr">
+        <is>
+          <t>21-12-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="30" customHeight="1">
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B38" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>23AURA02-1</t>
+        </is>
+      </c>
+      <c r="D38" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E38" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F38" s="31" t="inlineStr">
+        <is>
+          <t>07-02-2023</t>
+        </is>
+      </c>
+      <c r="G38" s="31" t="inlineStr">
+        <is>
+          <t>10-06-2023</t>
+        </is>
+      </c>
+      <c r="H38" s="22" t="inlineStr">
+        <is>
+          <t>Carl Max - Ghana</t>
+        </is>
+      </c>
+      <c r="I38" s="12" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>FOB</t>
+        </is>
+      </c>
+      <c r="K38" s="33" t="n">
+        <v>12953.34</v>
+      </c>
+      <c r="L38" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="34" t="n">
+        <v>10238.5</v>
+      </c>
+      <c r="O38" s="34" t="n">
+        <v>386.24</v>
+      </c>
+      <c r="P38" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="37" t="n">
+        <v>10624.74</v>
+      </c>
+      <c r="AD38" s="38" t="n">
+        <v>2328.6</v>
+      </c>
+      <c r="AE38" s="17" t="n">
+        <v>44452.97399999999</v>
+      </c>
+      <c r="AF38" s="19" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="30" customHeight="1">
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>Mehmet</t>
+        </is>
+      </c>
+      <c r="B39" s="28" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>23TDWL01-2</t>
+        </is>
+      </c>
+      <c r="D39" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E39" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F39" s="31" t="inlineStr">
+        <is>
+          <t>05-04-2023</t>
+        </is>
+      </c>
+      <c r="G39" s="31" t="inlineStr">
+        <is>
+          <t>12-06-2023</t>
+        </is>
+      </c>
+      <c r="H39" s="22" t="inlineStr">
+        <is>
+          <t>Seth, TDWL - Ghana</t>
+        </is>
+      </c>
+      <c r="I39" s="12" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K39" s="33" t="n">
+        <v>29604.5</v>
+      </c>
+      <c r="L39" s="34" t="n">
+        <v>12951.705</v>
+      </c>
+      <c r="M39" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="34" t="n">
+        <v>5358.6</v>
+      </c>
+      <c r="O39" s="34" t="n">
+        <v>210.89</v>
+      </c>
+      <c r="P39" s="34" t="n">
+        <v>53.55</v>
+      </c>
+      <c r="Q39" s="35" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="R39" s="35" t="n">
+        <v>400</v>
+      </c>
+      <c r="S39" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" s="35" t="n">
+        <v>980</v>
+      </c>
+      <c r="U39" s="35" t="n">
+        <v>3500</v>
+      </c>
+      <c r="V39" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="36" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="AC39" s="37" t="n">
+        <v>23493.715</v>
+      </c>
+      <c r="AD39" s="38" t="n">
+        <v>6110.785</v>
+      </c>
+      <c r="AE39" s="17" t="n">
+        <v>121421.29795</v>
+      </c>
+      <c r="AF39" s="19" t="inlineStr">
+        <is>
+          <t>22-05-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="30" customHeight="1">
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B40" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>23DSP06</t>
+        </is>
+      </c>
+      <c r="D40" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E40" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F40" s="31" t="inlineStr">
+        <is>
+          <t>26-04-2023</t>
+        </is>
+      </c>
+      <c r="G40" s="31" t="inlineStr">
+        <is>
+          <t>12-06-2023</t>
+        </is>
+      </c>
+      <c r="H40" s="22" t="inlineStr">
+        <is>
+          <t>Douglas - Belize</t>
+        </is>
+      </c>
+      <c r="I40" s="12" t="inlineStr">
+        <is>
+          <t>Belize</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K40" s="33" t="n">
+        <v>2214.15</v>
+      </c>
+      <c r="L40" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="34" t="n">
+        <v>550.5599999999999</v>
+      </c>
+      <c r="O40" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" s="34" t="n">
+        <v>26.44</v>
+      </c>
+      <c r="Q40" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" s="35" t="n">
+        <v>850</v>
+      </c>
+      <c r="U40" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="36" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="AC40" s="37" t="n">
+        <v>1448.7</v>
+      </c>
+      <c r="AD40" s="38" t="n">
+        <v>765.45</v>
+      </c>
+      <c r="AE40" s="17" t="n">
+        <v>14658.3675</v>
+      </c>
+      <c r="AF40" s="19" t="inlineStr">
+        <is>
+          <t>20-03-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="30" customHeight="1">
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="B41" s="28" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C41" s="28" t="inlineStr">
+        <is>
+          <t>23BRP11</t>
+        </is>
+      </c>
+      <c r="D41" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E41" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F41" s="31" t="inlineStr">
+        <is>
+          <t>04-05-2023</t>
+        </is>
+      </c>
+      <c r="G41" s="31" t="inlineStr">
+        <is>
+          <t>13-06-2023</t>
+        </is>
+      </c>
+      <c r="H41" s="22" t="inlineStr">
+        <is>
+          <t>Tracy - AU</t>
+        </is>
+      </c>
+      <c r="I41" s="12" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>FCA</t>
+        </is>
+      </c>
+      <c r="K41" s="33" t="n">
+        <v>12993.04</v>
+      </c>
+      <c r="L41" s="34" t="n">
+        <v>7698.348</v>
+      </c>
+      <c r="M41" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" s="34" t="n">
+        <v>2893.7568</v>
+      </c>
+      <c r="O41" s="34" t="n">
+        <v>147.74</v>
+      </c>
+      <c r="P41" s="34" t="n">
+        <v>39.46</v>
+      </c>
+      <c r="Q41" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="37" t="n">
+        <v>10779.3048</v>
+      </c>
+      <c r="AD41" s="38" t="n">
+        <v>2213.7352</v>
+      </c>
+      <c r="AE41" s="17" t="n">
+        <v>52421.249536</v>
+      </c>
+      <c r="AF41" s="19" t="inlineStr">
+        <is>
+          <t>14-06-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="30" customHeight="1">
+      <c r="A42" s="28" t="inlineStr">
+        <is>
+          <t>Mehmet</t>
+        </is>
+      </c>
+      <c r="B42" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C42" s="28" t="inlineStr">
+        <is>
+          <t>23TSE01-4</t>
+        </is>
+      </c>
+      <c r="D42" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E42" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F42" s="31" t="inlineStr">
+        <is>
+          <t>11-03-2023</t>
+        </is>
+      </c>
+      <c r="G42" s="31" t="inlineStr">
+        <is>
+          <t>17-06-2023</t>
+        </is>
+      </c>
+      <c r="H42" s="22" t="inlineStr">
+        <is>
+          <t>Kwabena Osei - Ghana</t>
+        </is>
+      </c>
+      <c r="I42" s="12" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="J42" s="9" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K42" s="33" t="n">
+        <v>2593.6</v>
+      </c>
+      <c r="L42" s="34" t="n">
+        <v>2106.81</v>
+      </c>
+      <c r="M42" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="37" t="n">
+        <v>2106.81</v>
+      </c>
+      <c r="AD42" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="30" customHeight="1">
-      <c r="A11" s="13" t="n"/>
-      <c r="B11" s="13" t="n"/>
-      <c r="C11" s="13" t="n"/>
-      <c r="D11" s="22" t="n"/>
-      <c r="E11" s="22" t="n"/>
-      <c r="F11" s="32" t="n"/>
-      <c r="G11" s="32" t="n"/>
-      <c r="H11" s="12" t="n"/>
-      <c r="I11" s="3" t="n"/>
-      <c r="J11" s="3" t="n"/>
-      <c r="K11" s="33" t="n"/>
-      <c r="L11" s="34" t="n"/>
-      <c r="M11" s="34" t="n"/>
-      <c r="N11" s="34" t="n"/>
-      <c r="O11" s="34" t="n"/>
-      <c r="P11" s="34" t="n"/>
-      <c r="Q11" s="35" t="n"/>
-      <c r="R11" s="35" t="n"/>
-      <c r="S11" s="35" t="n"/>
-      <c r="T11" s="35" t="n"/>
-      <c r="U11" s="35" t="n"/>
-      <c r="V11" s="35" t="n"/>
-      <c r="W11" s="35" t="n"/>
-      <c r="X11" s="35" t="n"/>
-      <c r="Y11" s="36" t="n"/>
-      <c r="Z11" s="36" t="n"/>
-      <c r="AA11" s="36" t="n"/>
-      <c r="AB11" s="36" t="n"/>
-      <c r="AC11" s="37" t="n"/>
-      <c r="AD11" s="38" t="n"/>
-      <c r="AE11" s="17" t="n"/>
-      <c r="AF11" s="19" t="n"/>
-    </row>
-    <row r="12" ht="30" customHeight="1">
-      <c r="A12" s="13" t="n"/>
-      <c r="B12" s="13" t="n"/>
-      <c r="C12" s="13" t="n"/>
-      <c r="D12" s="22" t="n"/>
-      <c r="E12" s="22" t="n"/>
-      <c r="F12" s="32" t="n"/>
-      <c r="G12" s="32" t="n"/>
-      <c r="H12" s="12" t="n"/>
-      <c r="I12" s="3" t="n"/>
-      <c r="J12" s="3" t="n"/>
-      <c r="K12" s="33" t="n"/>
-      <c r="L12" s="34" t="n"/>
-      <c r="M12" s="34" t="n"/>
-      <c r="N12" s="34" t="n"/>
-      <c r="O12" s="34" t="n"/>
-      <c r="P12" s="34" t="n"/>
-      <c r="Q12" s="35" t="n"/>
-      <c r="R12" s="35" t="n"/>
-      <c r="S12" s="35" t="n"/>
-      <c r="T12" s="35" t="n"/>
-      <c r="U12" s="35" t="n"/>
-      <c r="V12" s="35" t="n"/>
-      <c r="W12" s="35" t="n"/>
-      <c r="X12" s="35" t="n"/>
-      <c r="Y12" s="36" t="n"/>
-      <c r="Z12" s="36" t="n"/>
-      <c r="AA12" s="36" t="n"/>
-      <c r="AB12" s="36" t="n"/>
-      <c r="AC12" s="37" t="n"/>
-      <c r="AD12" s="38" t="n"/>
-      <c r="AE12" s="17" t="n"/>
-      <c r="AF12" s="19" t="n"/>
-    </row>
-    <row r="13" ht="30" customHeight="1">
-      <c r="A13" s="13" t="n"/>
-      <c r="B13" s="13" t="n"/>
-      <c r="C13" s="13" t="n"/>
-      <c r="D13" s="22" t="n"/>
-      <c r="E13" s="22" t="n"/>
-      <c r="F13" s="32" t="n"/>
-      <c r="G13" s="32" t="n"/>
-      <c r="H13" s="12" t="n"/>
-      <c r="I13" s="3" t="n"/>
-      <c r="J13" s="3" t="n"/>
-      <c r="K13" s="33" t="n"/>
-      <c r="L13" s="34" t="n"/>
-      <c r="M13" s="34" t="n"/>
-      <c r="N13" s="34" t="n"/>
-      <c r="O13" s="34" t="n"/>
-      <c r="P13" s="34" t="n"/>
-      <c r="Q13" s="35" t="n"/>
-      <c r="R13" s="35" t="n"/>
-      <c r="S13" s="35" t="n"/>
-      <c r="T13" s="35" t="n"/>
-      <c r="U13" s="35" t="n"/>
-      <c r="V13" s="35" t="n"/>
-      <c r="W13" s="35" t="n"/>
-      <c r="X13" s="35" t="n"/>
-      <c r="Y13" s="36" t="n"/>
-      <c r="Z13" s="36" t="n"/>
-      <c r="AA13" s="36" t="n"/>
-      <c r="AB13" s="36" t="n"/>
-      <c r="AC13" s="37" t="n"/>
-      <c r="AD13" s="38" t="n"/>
-      <c r="AE13" s="17" t="n"/>
-      <c r="AF13" s="19" t="n"/>
-    </row>
-    <row r="14" ht="30" customHeight="1">
-      <c r="A14" s="13" t="n"/>
-      <c r="B14" s="13" t="n"/>
-      <c r="C14" s="13" t="n"/>
-      <c r="D14" s="22" t="n"/>
-      <c r="E14" s="22" t="n"/>
-      <c r="F14" s="32" t="n"/>
-      <c r="G14" s="32" t="n"/>
-      <c r="H14" s="12" t="n"/>
-      <c r="I14" s="3" t="n"/>
-      <c r="J14" s="3" t="n"/>
-      <c r="K14" s="33" t="n"/>
-      <c r="L14" s="34" t="n"/>
-      <c r="M14" s="34" t="n"/>
-      <c r="N14" s="34" t="n"/>
-      <c r="O14" s="34" t="n"/>
-      <c r="P14" s="34" t="n"/>
-      <c r="Q14" s="35" t="n"/>
-      <c r="R14" s="35" t="n"/>
-      <c r="S14" s="35" t="n"/>
-      <c r="T14" s="35" t="n"/>
-      <c r="U14" s="35" t="n"/>
-      <c r="V14" s="35" t="n"/>
-      <c r="W14" s="35" t="n"/>
-      <c r="X14" s="35" t="n"/>
-      <c r="Y14" s="36" t="n"/>
-      <c r="Z14" s="36" t="n"/>
-      <c r="AA14" s="36" t="n"/>
-      <c r="AB14" s="36" t="n"/>
-      <c r="AC14" s="37" t="n"/>
-      <c r="AD14" s="38" t="n"/>
-      <c r="AE14" s="17" t="n"/>
-      <c r="AF14" s="19" t="n"/>
-    </row>
-    <row r="15" ht="30" customHeight="1">
-      <c r="A15" s="13" t="n"/>
-      <c r="B15" s="13" t="n"/>
-      <c r="C15" s="13" t="n"/>
-      <c r="D15" s="22" t="n"/>
-      <c r="E15" s="22" t="n"/>
-      <c r="F15" s="32" t="n"/>
-      <c r="G15" s="32" t="n"/>
-      <c r="H15" s="12" t="n"/>
-      <c r="I15" s="3" t="n"/>
-      <c r="J15" s="3" t="n"/>
-      <c r="K15" s="33" t="n"/>
-      <c r="L15" s="34" t="n"/>
-      <c r="M15" s="34" t="n"/>
-      <c r="N15" s="34" t="n"/>
-      <c r="O15" s="34" t="n"/>
-      <c r="P15" s="34" t="n"/>
-      <c r="Q15" s="35" t="n"/>
-      <c r="R15" s="35" t="n"/>
-      <c r="S15" s="35" t="n"/>
-      <c r="T15" s="35" t="n"/>
-      <c r="U15" s="35" t="n"/>
-      <c r="V15" s="35" t="n"/>
-      <c r="W15" s="35" t="n"/>
-      <c r="X15" s="35" t="n"/>
-      <c r="Y15" s="36" t="n"/>
-      <c r="Z15" s="36" t="n"/>
-      <c r="AA15" s="36" t="n"/>
-      <c r="AB15" s="36" t="n"/>
-      <c r="AC15" s="37" t="n"/>
-      <c r="AD15" s="38" t="n"/>
-      <c r="AE15" s="17" t="n"/>
-      <c r="AF15" s="19" t="n"/>
-    </row>
-    <row r="16" ht="30" customHeight="1">
-      <c r="A16" s="13" t="n"/>
-      <c r="B16" s="13" t="n"/>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="22" t="n"/>
-      <c r="E16" s="22" t="n"/>
-      <c r="F16" s="32" t="n"/>
-      <c r="G16" s="32" t="n"/>
-      <c r="H16" s="12" t="n"/>
-      <c r="I16" s="3" t="n"/>
-      <c r="J16" s="3" t="n"/>
-      <c r="K16" s="33" t="n"/>
-      <c r="L16" s="34" t="n"/>
-      <c r="M16" s="34" t="n"/>
-      <c r="N16" s="34" t="n"/>
-      <c r="O16" s="34" t="n"/>
-      <c r="P16" s="34" t="n"/>
-      <c r="Q16" s="35" t="n"/>
-      <c r="R16" s="35" t="n"/>
-      <c r="S16" s="35" t="n"/>
-      <c r="T16" s="35" t="n"/>
-      <c r="U16" s="35" t="n"/>
-      <c r="V16" s="35" t="n"/>
-      <c r="W16" s="35" t="n"/>
-      <c r="X16" s="35" t="n"/>
-      <c r="Y16" s="36" t="n"/>
-      <c r="Z16" s="36" t="n"/>
-      <c r="AA16" s="36" t="n"/>
-      <c r="AB16" s="36" t="n"/>
-      <c r="AC16" s="37" t="n"/>
-      <c r="AD16" s="38" t="n"/>
-      <c r="AE16" s="17" t="n"/>
-      <c r="AF16" s="19" t="n"/>
-    </row>
-    <row r="17" ht="30" customHeight="1">
-      <c r="A17" s="13" t="n"/>
-      <c r="B17" s="13" t="n"/>
-      <c r="C17" s="13" t="n"/>
-      <c r="D17" s="22" t="n"/>
-      <c r="E17" s="22" t="n"/>
-      <c r="F17" s="32" t="n"/>
-      <c r="G17" s="32" t="n"/>
-      <c r="H17" s="12" t="n"/>
-      <c r="I17" s="3" t="n"/>
-      <c r="J17" s="3" t="n"/>
-      <c r="K17" s="33" t="n"/>
-      <c r="L17" s="34" t="n"/>
-      <c r="M17" s="34" t="n"/>
-      <c r="N17" s="34" t="n"/>
-      <c r="O17" s="34" t="n"/>
-      <c r="P17" s="34" t="n"/>
-      <c r="Q17" s="35" t="n"/>
-      <c r="R17" s="35" t="n"/>
-      <c r="S17" s="35" t="n"/>
-      <c r="T17" s="35" t="n"/>
-      <c r="U17" s="35" t="n"/>
-      <c r="V17" s="35" t="n"/>
-      <c r="W17" s="35" t="n"/>
-      <c r="X17" s="35" t="n"/>
-      <c r="Y17" s="36" t="n"/>
-      <c r="Z17" s="36" t="n"/>
-      <c r="AA17" s="36" t="n"/>
-      <c r="AB17" s="36" t="n"/>
-      <c r="AC17" s="37" t="n"/>
-      <c r="AD17" s="38" t="n"/>
-      <c r="AE17" s="17" t="n"/>
-      <c r="AF17" s="19" t="n"/>
-    </row>
-    <row r="18" ht="30" customHeight="1">
-      <c r="A18" s="13" t="n"/>
-      <c r="B18" s="13" t="n"/>
-      <c r="C18" s="13" t="n"/>
-      <c r="D18" s="22" t="n"/>
-      <c r="E18" s="22" t="n"/>
-      <c r="F18" s="32" t="n"/>
-      <c r="G18" s="32" t="n"/>
-      <c r="H18" s="21" t="n"/>
-      <c r="I18" s="3" t="n"/>
-      <c r="J18" s="3" t="n"/>
-      <c r="K18" s="33" t="n"/>
-      <c r="L18" s="34" t="n"/>
-      <c r="M18" s="34" t="n"/>
-      <c r="N18" s="34" t="n"/>
-      <c r="O18" s="34" t="n"/>
-      <c r="P18" s="34" t="n"/>
-      <c r="Q18" s="35" t="n"/>
-      <c r="R18" s="35" t="n"/>
-      <c r="S18" s="35" t="n"/>
-      <c r="T18" s="35" t="n"/>
-      <c r="U18" s="35" t="n"/>
-      <c r="V18" s="35" t="n"/>
-      <c r="W18" s="35" t="n"/>
-      <c r="X18" s="35" t="n"/>
-      <c r="Y18" s="36" t="n"/>
-      <c r="Z18" s="36" t="n"/>
-      <c r="AA18" s="36" t="n"/>
-      <c r="AB18" s="36" t="n"/>
-      <c r="AC18" s="37" t="n"/>
-      <c r="AD18" s="38" t="n"/>
-      <c r="AE18" s="17" t="n"/>
-      <c r="AF18" s="19" t="n"/>
-    </row>
-    <row r="19" ht="30" customHeight="1">
-      <c r="A19" s="13" t="n"/>
-      <c r="B19" s="13" t="n"/>
-      <c r="C19" s="13" t="n"/>
-      <c r="D19" s="22" t="n"/>
-      <c r="E19" s="22" t="n"/>
-      <c r="F19" s="32" t="n"/>
-      <c r="G19" s="32" t="n"/>
-      <c r="H19" s="22" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="3" t="n"/>
-      <c r="K19" s="33" t="n"/>
-      <c r="L19" s="34" t="n"/>
-      <c r="M19" s="34" t="n"/>
-      <c r="N19" s="34" t="n"/>
-      <c r="O19" s="34" t="n"/>
-      <c r="P19" s="34" t="n"/>
-      <c r="Q19" s="35" t="n"/>
-      <c r="R19" s="35" t="n"/>
-      <c r="S19" s="35" t="n"/>
-      <c r="T19" s="35" t="n"/>
-      <c r="U19" s="35" t="n"/>
-      <c r="V19" s="35" t="n"/>
-      <c r="W19" s="35" t="n"/>
-      <c r="X19" s="35" t="n"/>
-      <c r="Y19" s="36" t="n"/>
-      <c r="Z19" s="36" t="n"/>
-      <c r="AA19" s="36" t="n"/>
-      <c r="AB19" s="36" t="n"/>
-      <c r="AC19" s="37" t="n"/>
-      <c r="AD19" s="38" t="n"/>
-      <c r="AE19" s="17" t="n"/>
-      <c r="AF19" s="19" t="n"/>
-    </row>
-    <row r="20" ht="34.8" customHeight="1">
-      <c r="A20" s="13" t="n"/>
-      <c r="B20" s="13" t="n"/>
-      <c r="C20" s="13" t="n"/>
-      <c r="D20" s="22" t="n"/>
-      <c r="E20" s="22" t="n"/>
-      <c r="F20" s="32" t="n"/>
-      <c r="G20" s="32" t="n"/>
-      <c r="H20" s="22" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="9" t="n"/>
-      <c r="K20" s="33" t="n"/>
-      <c r="L20" s="34" t="n"/>
-      <c r="M20" s="34" t="n"/>
-      <c r="N20" s="34" t="n"/>
-      <c r="O20" s="34" t="n"/>
-      <c r="P20" s="34" t="n"/>
-      <c r="Q20" s="35" t="n"/>
-      <c r="R20" s="35" t="n"/>
-      <c r="S20" s="35" t="n"/>
-      <c r="T20" s="35" t="n"/>
-      <c r="U20" s="35" t="n"/>
-      <c r="V20" s="35" t="n"/>
-      <c r="W20" s="35" t="n"/>
-      <c r="X20" s="35" t="n"/>
-      <c r="Y20" s="36" t="n"/>
-      <c r="Z20" s="36" t="n"/>
-      <c r="AA20" s="36" t="n"/>
-      <c r="AB20" s="36" t="n"/>
-      <c r="AC20" s="37" t="n"/>
-      <c r="AD20" s="38" t="n"/>
-      <c r="AE20" s="17" t="n"/>
-      <c r="AF20" s="19" t="n"/>
-    </row>
-    <row r="21" ht="30" customHeight="1">
-      <c r="A21" s="28" t="n"/>
-      <c r="B21" s="28" t="n"/>
-      <c r="C21" s="28" t="n"/>
-      <c r="D21" s="30" t="n"/>
-      <c r="E21" s="30" t="n"/>
-      <c r="F21" s="31" t="n"/>
-      <c r="G21" s="31" t="n"/>
-      <c r="H21" s="22" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="9" t="n"/>
-      <c r="K21" s="33" t="n"/>
-      <c r="L21" s="34" t="n"/>
-      <c r="M21" s="34" t="n"/>
-      <c r="N21" s="34" t="n"/>
-      <c r="O21" s="34" t="n"/>
-      <c r="P21" s="34" t="n"/>
-      <c r="Q21" s="35" t="n"/>
-      <c r="R21" s="35" t="n"/>
-      <c r="S21" s="35" t="n"/>
-      <c r="T21" s="35" t="n"/>
-      <c r="U21" s="35" t="n"/>
-      <c r="V21" s="35" t="n"/>
-      <c r="W21" s="35" t="n"/>
-      <c r="X21" s="35" t="n"/>
-      <c r="Y21" s="36" t="n"/>
-      <c r="Z21" s="36" t="n"/>
-      <c r="AA21" s="36" t="n"/>
-      <c r="AB21" s="36" t="n"/>
-      <c r="AC21" s="37" t="n"/>
-      <c r="AD21" s="38" t="n"/>
-      <c r="AE21" s="17" t="n"/>
-      <c r="AF21" s="19" t="n"/>
-    </row>
-    <row r="22" ht="30" customHeight="1">
-      <c r="A22" s="28" t="n"/>
-      <c r="B22" s="28" t="n"/>
-      <c r="C22" s="28" t="n"/>
-      <c r="D22" s="30" t="n"/>
-      <c r="E22" s="30" t="n"/>
-      <c r="F22" s="31" t="n"/>
-      <c r="G22" s="31" t="n"/>
-      <c r="H22" s="22" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="9" t="n"/>
-      <c r="K22" s="33" t="n"/>
-      <c r="L22" s="34" t="n"/>
-      <c r="M22" s="34" t="n"/>
-      <c r="N22" s="34" t="n"/>
-      <c r="O22" s="34" t="n"/>
-      <c r="P22" s="34" t="n"/>
-      <c r="Q22" s="35" t="n"/>
-      <c r="R22" s="35" t="n"/>
-      <c r="S22" s="35" t="n"/>
-      <c r="T22" s="35" t="n"/>
-      <c r="U22" s="35" t="n"/>
-      <c r="V22" s="35" t="n"/>
-      <c r="W22" s="35" t="n"/>
-      <c r="X22" s="35" t="n"/>
-      <c r="Y22" s="36" t="n"/>
-      <c r="Z22" s="36" t="n"/>
-      <c r="AA22" s="36" t="n"/>
-      <c r="AB22" s="36" t="n"/>
-      <c r="AC22" s="37" t="n"/>
-      <c r="AD22" s="38" t="n"/>
-      <c r="AE22" s="17" t="n"/>
-      <c r="AF22" s="19" t="n"/>
-    </row>
-    <row r="23" ht="30" customHeight="1">
-      <c r="A23" s="28" t="n"/>
-      <c r="B23" s="28" t="n"/>
-      <c r="C23" s="28" t="n"/>
-      <c r="D23" s="30" t="n"/>
-      <c r="E23" s="30" t="n"/>
-      <c r="F23" s="31" t="n"/>
-      <c r="G23" s="31" t="n"/>
-      <c r="H23" s="22" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="9" t="n"/>
-      <c r="K23" s="33" t="n"/>
-      <c r="L23" s="34" t="n"/>
-      <c r="M23" s="34" t="n"/>
-      <c r="N23" s="34" t="n"/>
-      <c r="O23" s="34" t="n"/>
-      <c r="P23" s="34" t="n"/>
-      <c r="Q23" s="35" t="n"/>
-      <c r="R23" s="35" t="n"/>
-      <c r="S23" s="35" t="n"/>
-      <c r="T23" s="35" t="n"/>
-      <c r="U23" s="35" t="n"/>
-      <c r="V23" s="35" t="n"/>
-      <c r="W23" s="35" t="n"/>
-      <c r="X23" s="35" t="n"/>
-      <c r="Y23" s="36" t="n"/>
-      <c r="Z23" s="36" t="n"/>
-      <c r="AA23" s="36" t="n"/>
-      <c r="AB23" s="36" t="n"/>
-      <c r="AC23" s="37" t="n"/>
-      <c r="AD23" s="38" t="n"/>
-      <c r="AE23" s="17" t="n"/>
-      <c r="AF23" s="19" t="n"/>
-    </row>
-    <row r="24" ht="30" customHeight="1">
-      <c r="A24" s="28" t="n"/>
-      <c r="B24" s="28" t="n"/>
-      <c r="C24" s="28" t="n"/>
-      <c r="D24" s="30" t="n"/>
-      <c r="E24" s="30" t="n"/>
-      <c r="F24" s="31" t="n"/>
-      <c r="G24" s="31" t="n"/>
-      <c r="H24" s="22" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="9" t="n"/>
-      <c r="K24" s="33" t="n"/>
-      <c r="L24" s="34" t="n"/>
-      <c r="M24" s="34" t="n"/>
-      <c r="N24" s="34" t="n"/>
-      <c r="O24" s="34" t="n"/>
-      <c r="P24" s="34" t="n"/>
-      <c r="Q24" s="35" t="n"/>
-      <c r="R24" s="35" t="n"/>
-      <c r="S24" s="35" t="n"/>
-      <c r="T24" s="35" t="n"/>
-      <c r="U24" s="35" t="n"/>
-      <c r="V24" s="35" t="n"/>
-      <c r="W24" s="35" t="n"/>
-      <c r="X24" s="35" t="n"/>
-      <c r="Y24" s="36" t="n"/>
-      <c r="Z24" s="36" t="n"/>
-      <c r="AA24" s="36" t="n"/>
-      <c r="AB24" s="36" t="n"/>
-      <c r="AC24" s="37" t="n"/>
-      <c r="AD24" s="38" t="n"/>
-      <c r="AE24" s="17" t="n"/>
-      <c r="AF24" s="19" t="n"/>
-    </row>
-    <row r="25" ht="30" customHeight="1">
-      <c r="A25" s="28" t="n"/>
-      <c r="B25" s="28" t="n"/>
-      <c r="C25" s="28" t="n"/>
-      <c r="D25" s="30" t="n"/>
-      <c r="E25" s="30" t="n"/>
-      <c r="F25" s="31" t="n"/>
-      <c r="G25" s="31" t="n"/>
-      <c r="H25" s="22" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="9" t="n"/>
-      <c r="K25" s="33" t="n"/>
-      <c r="L25" s="34" t="n"/>
-      <c r="M25" s="34" t="n"/>
-      <c r="N25" s="34" t="n"/>
-      <c r="O25" s="34" t="n"/>
-      <c r="P25" s="34" t="n"/>
-      <c r="Q25" s="35" t="n"/>
-      <c r="R25" s="35" t="n"/>
-      <c r="S25" s="35" t="n"/>
-      <c r="T25" s="35" t="n"/>
-      <c r="U25" s="35" t="n"/>
-      <c r="V25" s="35" t="n"/>
-      <c r="W25" s="35" t="n"/>
-      <c r="X25" s="35" t="n"/>
-      <c r="Y25" s="36" t="n"/>
-      <c r="Z25" s="36" t="n"/>
-      <c r="AA25" s="36" t="n"/>
-      <c r="AB25" s="36" t="n"/>
-      <c r="AC25" s="37" t="n"/>
-      <c r="AD25" s="38" t="n"/>
-      <c r="AE25" s="17" t="n"/>
-      <c r="AF25" s="19" t="n"/>
-    </row>
-    <row r="26" ht="30" customHeight="1">
-      <c r="A26" s="28" t="n"/>
-      <c r="B26" s="28" t="n"/>
-      <c r="C26" s="28" t="n"/>
-      <c r="D26" s="30" t="n"/>
-      <c r="E26" s="30" t="n"/>
-      <c r="F26" s="31" t="n"/>
-      <c r="G26" s="31" t="n"/>
-      <c r="H26" s="22" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="9" t="n"/>
-      <c r="K26" s="33" t="n"/>
-      <c r="L26" s="34" t="n"/>
-      <c r="M26" s="34" t="n"/>
-      <c r="N26" s="34" t="n"/>
-      <c r="O26" s="34" t="n"/>
-      <c r="P26" s="34" t="n"/>
-      <c r="Q26" s="35" t="n"/>
-      <c r="R26" s="35" t="n"/>
-      <c r="S26" s="35" t="n"/>
-      <c r="T26" s="35" t="n"/>
-      <c r="U26" s="35" t="n"/>
-      <c r="V26" s="35" t="n"/>
-      <c r="W26" s="35" t="n"/>
-      <c r="X26" s="35" t="n"/>
-      <c r="Y26" s="36" t="n"/>
-      <c r="Z26" s="36" t="n"/>
-      <c r="AA26" s="36" t="n"/>
-      <c r="AB26" s="36" t="n"/>
-      <c r="AC26" s="37" t="n"/>
-      <c r="AD26" s="38" t="n"/>
-      <c r="AE26" s="17" t="n"/>
-      <c r="AF26" s="19" t="n"/>
-    </row>
-    <row r="27" ht="30" customHeight="1">
-      <c r="A27" s="28" t="n"/>
-      <c r="B27" s="28" t="n"/>
-      <c r="C27" s="28" t="n"/>
-      <c r="D27" s="30" t="n"/>
-      <c r="E27" s="30" t="n"/>
-      <c r="F27" s="31" t="n"/>
-      <c r="G27" s="31" t="n"/>
-      <c r="H27" s="22" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="9" t="n"/>
-      <c r="K27" s="33" t="n"/>
-      <c r="L27" s="34" t="n"/>
-      <c r="M27" s="34" t="n"/>
-      <c r="N27" s="34" t="n"/>
-      <c r="O27" s="34" t="n"/>
-      <c r="P27" s="34" t="n"/>
-      <c r="Q27" s="35" t="n"/>
-      <c r="R27" s="35" t="n"/>
-      <c r="S27" s="35" t="n"/>
-      <c r="T27" s="35" t="n"/>
-      <c r="U27" s="35" t="n"/>
-      <c r="V27" s="35" t="n"/>
-      <c r="W27" s="35" t="n"/>
-      <c r="X27" s="35" t="n"/>
-      <c r="Y27" s="36" t="n"/>
-      <c r="Z27" s="36" t="n"/>
-      <c r="AA27" s="36" t="n"/>
-      <c r="AB27" s="36" t="n"/>
-      <c r="AC27" s="37" t="n"/>
-      <c r="AD27" s="38" t="n"/>
-      <c r="AE27" s="17" t="n"/>
-      <c r="AF27" s="19" t="n"/>
-    </row>
-    <row r="28" ht="30" customHeight="1">
-      <c r="A28" s="28" t="n"/>
-      <c r="B28" s="28" t="n"/>
-      <c r="C28" s="28" t="n"/>
-      <c r="D28" s="30" t="n"/>
-      <c r="E28" s="30" t="n"/>
-      <c r="F28" s="31" t="n"/>
-      <c r="G28" s="31" t="n"/>
-      <c r="H28" s="22" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="9" t="n"/>
-      <c r="K28" s="33" t="n"/>
-      <c r="L28" s="34" t="n"/>
-      <c r="M28" s="34" t="n"/>
-      <c r="N28" s="34" t="n"/>
-      <c r="O28" s="34" t="n"/>
-      <c r="P28" s="34" t="n"/>
-      <c r="Q28" s="35" t="n"/>
-      <c r="R28" s="35" t="n"/>
-      <c r="S28" s="35" t="n"/>
-      <c r="T28" s="35" t="n"/>
-      <c r="U28" s="35" t="n"/>
-      <c r="V28" s="35" t="n"/>
-      <c r="W28" s="35" t="n"/>
-      <c r="X28" s="35" t="n"/>
-      <c r="Y28" s="36" t="n"/>
-      <c r="Z28" s="36" t="n"/>
-      <c r="AA28" s="36" t="n"/>
-      <c r="AB28" s="36" t="n"/>
-      <c r="AC28" s="37" t="n"/>
-      <c r="AD28" s="38" t="n"/>
-      <c r="AE28" s="17" t="n"/>
-      <c r="AF28" s="19" t="n"/>
-    </row>
-    <row r="29" ht="30" customHeight="1">
-      <c r="A29" s="28" t="n"/>
-      <c r="B29" s="28" t="n"/>
-      <c r="C29" s="28" t="n"/>
-      <c r="D29" s="30" t="n"/>
-      <c r="E29" s="30" t="n"/>
-      <c r="F29" s="31" t="n"/>
-      <c r="G29" s="31" t="n"/>
-      <c r="H29" s="22" t="n"/>
-      <c r="I29" s="12" t="n"/>
-      <c r="J29" s="9" t="n"/>
-      <c r="K29" s="33" t="n"/>
-      <c r="L29" s="34" t="n"/>
-      <c r="M29" s="34" t="n"/>
-      <c r="N29" s="34" t="n"/>
-      <c r="O29" s="34" t="n"/>
-      <c r="P29" s="34" t="n"/>
-      <c r="Q29" s="35" t="n"/>
-      <c r="R29" s="35" t="n"/>
-      <c r="S29" s="35" t="n"/>
-      <c r="T29" s="35" t="n"/>
-      <c r="U29" s="35" t="n"/>
-      <c r="V29" s="35" t="n"/>
-      <c r="W29" s="35" t="n"/>
-      <c r="X29" s="35" t="n"/>
-      <c r="Y29" s="36" t="n"/>
-      <c r="Z29" s="36" t="n"/>
-      <c r="AA29" s="36" t="n"/>
-      <c r="AB29" s="36" t="n"/>
-      <c r="AC29" s="37" t="n"/>
-      <c r="AD29" s="38" t="n"/>
-      <c r="AE29" s="17" t="n"/>
-      <c r="AF29" s="19" t="n"/>
-    </row>
-    <row r="30" ht="30" customHeight="1">
-      <c r="A30" s="28" t="n"/>
-      <c r="B30" s="28" t="n"/>
-      <c r="C30" s="28" t="n"/>
-      <c r="D30" s="30" t="n"/>
-      <c r="E30" s="30" t="n"/>
-      <c r="F30" s="31" t="n"/>
-      <c r="G30" s="31" t="n"/>
-      <c r="H30" s="22" t="n"/>
-      <c r="I30" s="12" t="n"/>
-      <c r="J30" s="9" t="n"/>
-      <c r="K30" s="33" t="n"/>
-      <c r="L30" s="34" t="n"/>
-      <c r="M30" s="34" t="n"/>
-      <c r="N30" s="34" t="n"/>
-      <c r="O30" s="34" t="n"/>
-      <c r="P30" s="34" t="n"/>
-      <c r="Q30" s="35" t="n"/>
-      <c r="R30" s="35" t="n"/>
-      <c r="S30" s="35" t="n"/>
-      <c r="T30" s="35" t="n"/>
-      <c r="U30" s="35" t="n"/>
-      <c r="V30" s="35" t="n"/>
-      <c r="W30" s="35" t="n"/>
-      <c r="X30" s="35" t="n"/>
-      <c r="Y30" s="36" t="n"/>
-      <c r="Z30" s="36" t="n"/>
-      <c r="AA30" s="36" t="n"/>
-      <c r="AB30" s="36" t="n"/>
-      <c r="AC30" s="37" t="n"/>
-      <c r="AD30" s="38" t="n"/>
-      <c r="AE30" s="17" t="n"/>
-      <c r="AF30" s="19" t="n"/>
-    </row>
-    <row r="31" ht="30" customHeight="1">
-      <c r="A31" s="28" t="n"/>
-      <c r="B31" s="28" t="n"/>
-      <c r="C31" s="28" t="n"/>
-      <c r="D31" s="30" t="n"/>
-      <c r="E31" s="30" t="n"/>
-      <c r="F31" s="31" t="n"/>
-      <c r="G31" s="31" t="n"/>
-      <c r="H31" s="22" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="9" t="n"/>
-      <c r="K31" s="33" t="n"/>
-      <c r="L31" s="34" t="n"/>
-      <c r="M31" s="34" t="n"/>
-      <c r="N31" s="34" t="n"/>
-      <c r="O31" s="34" t="n"/>
-      <c r="P31" s="34" t="n"/>
-      <c r="Q31" s="35" t="n"/>
-      <c r="R31" s="35" t="n"/>
-      <c r="S31" s="35" t="n"/>
-      <c r="T31" s="35" t="n"/>
-      <c r="U31" s="35" t="n"/>
-      <c r="V31" s="35" t="n"/>
-      <c r="W31" s="35" t="n"/>
-      <c r="X31" s="35" t="n"/>
-      <c r="Y31" s="36" t="n"/>
-      <c r="Z31" s="36" t="n"/>
-      <c r="AA31" s="36" t="n"/>
-      <c r="AB31" s="36" t="n"/>
-      <c r="AC31" s="37" t="n"/>
-      <c r="AD31" s="38" t="n"/>
-      <c r="AE31" s="17" t="n"/>
-      <c r="AF31" s="19" t="n"/>
-    </row>
-    <row r="32" ht="30" customHeight="1">
-      <c r="A32" s="28" t="n"/>
-      <c r="B32" s="28" t="n"/>
-      <c r="C32" s="28" t="n"/>
-      <c r="D32" s="30" t="n"/>
-      <c r="E32" s="30" t="n"/>
-      <c r="F32" s="31" t="n"/>
-      <c r="G32" s="31" t="n"/>
-      <c r="H32" s="22" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="9" t="n"/>
-      <c r="K32" s="33" t="n"/>
-      <c r="L32" s="34" t="n"/>
-      <c r="M32" s="34" t="n"/>
-      <c r="N32" s="34" t="n"/>
-      <c r="O32" s="34" t="n"/>
-      <c r="P32" s="34" t="n"/>
-      <c r="Q32" s="35" t="n"/>
-      <c r="R32" s="35" t="n"/>
-      <c r="S32" s="35" t="n"/>
-      <c r="T32" s="35" t="n"/>
-      <c r="U32" s="35" t="n"/>
-      <c r="V32" s="35" t="n"/>
-      <c r="W32" s="35" t="n"/>
-      <c r="X32" s="35" t="n"/>
-      <c r="Y32" s="36" t="n"/>
-      <c r="Z32" s="36" t="n"/>
-      <c r="AA32" s="36" t="n"/>
-      <c r="AB32" s="36" t="n"/>
-      <c r="AC32" s="37" t="n"/>
-      <c r="AD32" s="38" t="n"/>
-      <c r="AE32" s="17" t="n"/>
-      <c r="AF32" s="19" t="n"/>
-    </row>
-    <row r="33" ht="30" customHeight="1">
-      <c r="A33" s="28" t="n"/>
-      <c r="B33" s="28" t="n"/>
-      <c r="C33" s="28" t="n"/>
-      <c r="D33" s="30" t="n"/>
-      <c r="E33" s="30" t="n"/>
-      <c r="F33" s="31" t="n"/>
-      <c r="G33" s="31" t="n"/>
-      <c r="H33" s="22" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="9" t="n"/>
-      <c r="K33" s="33" t="n"/>
-      <c r="L33" s="34" t="n"/>
-      <c r="M33" s="34" t="n"/>
-      <c r="N33" s="34" t="n"/>
-      <c r="O33" s="34" t="n"/>
-      <c r="P33" s="34" t="n"/>
-      <c r="Q33" s="35" t="n"/>
-      <c r="R33" s="35" t="n"/>
-      <c r="S33" s="35" t="n"/>
-      <c r="T33" s="35" t="n"/>
-      <c r="U33" s="35" t="n"/>
-      <c r="V33" s="35" t="n"/>
-      <c r="W33" s="35" t="n"/>
-      <c r="X33" s="35" t="n"/>
-      <c r="Y33" s="36" t="n"/>
-      <c r="Z33" s="36" t="n"/>
-      <c r="AA33" s="36" t="n"/>
-      <c r="AB33" s="36" t="n"/>
-      <c r="AC33" s="37" t="n"/>
-      <c r="AD33" s="38" t="n"/>
-      <c r="AE33" s="17" t="n"/>
-      <c r="AF33" s="19" t="n"/>
-    </row>
-    <row r="34" ht="30" customHeight="1">
-      <c r="A34" s="28" t="n"/>
-      <c r="B34" s="28" t="n"/>
-      <c r="C34" s="28" t="n"/>
-      <c r="D34" s="30" t="n"/>
-      <c r="E34" s="30" t="n"/>
-      <c r="F34" s="31" t="n"/>
-      <c r="G34" s="31" t="n"/>
-      <c r="H34" s="22" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="9" t="n"/>
-      <c r="K34" s="33" t="n"/>
-      <c r="L34" s="34" t="n"/>
-      <c r="M34" s="34" t="n"/>
-      <c r="N34" s="34" t="n"/>
-      <c r="O34" s="34" t="n"/>
-      <c r="P34" s="34" t="n"/>
-      <c r="Q34" s="35" t="n"/>
-      <c r="R34" s="35" t="n"/>
-      <c r="S34" s="35" t="n"/>
-      <c r="T34" s="35" t="n"/>
-      <c r="U34" s="35" t="n"/>
-      <c r="V34" s="35" t="n"/>
-      <c r="W34" s="35" t="n"/>
-      <c r="X34" s="35" t="n"/>
-      <c r="Y34" s="36" t="n"/>
-      <c r="Z34" s="36" t="n"/>
-      <c r="AA34" s="36" t="n"/>
-      <c r="AB34" s="36" t="n"/>
-      <c r="AC34" s="37" t="n"/>
-      <c r="AD34" s="38" t="n"/>
-      <c r="AE34" s="17" t="n"/>
-      <c r="AF34" s="19" t="n"/>
-    </row>
-    <row r="35" ht="30" customHeight="1">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="28" t="n"/>
-      <c r="D35" s="30" t="n"/>
-      <c r="E35" s="30" t="n"/>
-      <c r="F35" s="31" t="n"/>
-      <c r="G35" s="31" t="n"/>
-      <c r="H35" s="22" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="9" t="n"/>
-      <c r="K35" s="33" t="n"/>
-      <c r="L35" s="34" t="n"/>
-      <c r="M35" s="34" t="n"/>
-      <c r="N35" s="34" t="n"/>
-      <c r="O35" s="34" t="n"/>
-      <c r="P35" s="34" t="n"/>
-      <c r="Q35" s="35" t="n"/>
-      <c r="R35" s="35" t="n"/>
-      <c r="S35" s="35" t="n"/>
-      <c r="T35" s="35" t="n"/>
-      <c r="U35" s="35" t="n"/>
-      <c r="V35" s="35" t="n"/>
-      <c r="W35" s="35" t="n"/>
-      <c r="X35" s="35" t="n"/>
-      <c r="Y35" s="36" t="n"/>
-      <c r="Z35" s="36" t="n"/>
-      <c r="AA35" s="36" t="n"/>
-      <c r="AB35" s="36" t="n"/>
-      <c r="AC35" s="37" t="n"/>
-      <c r="AD35" s="38" t="n"/>
-      <c r="AE35" s="17" t="n"/>
-      <c r="AF35" s="19" t="n"/>
-    </row>
-    <row r="36" ht="30" customHeight="1">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="28" t="n"/>
-      <c r="D36" s="30" t="n"/>
-      <c r="E36" s="30" t="n"/>
-      <c r="F36" s="31" t="n"/>
-      <c r="G36" s="31" t="n"/>
-      <c r="H36" s="22" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="9" t="n"/>
-      <c r="K36" s="33" t="n"/>
-      <c r="L36" s="34" t="n"/>
-      <c r="M36" s="34" t="n"/>
-      <c r="N36" s="34" t="n"/>
-      <c r="O36" s="34" t="n"/>
-      <c r="P36" s="34" t="n"/>
-      <c r="Q36" s="35" t="n"/>
-      <c r="R36" s="35" t="n"/>
-      <c r="S36" s="35" t="n"/>
-      <c r="T36" s="35" t="n"/>
-      <c r="U36" s="35" t="n"/>
-      <c r="V36" s="35" t="n"/>
-      <c r="W36" s="35" t="n"/>
-      <c r="X36" s="35" t="n"/>
-      <c r="Y36" s="36" t="n"/>
-      <c r="Z36" s="36" t="n"/>
-      <c r="AA36" s="36" t="n"/>
-      <c r="AB36" s="36" t="n"/>
-      <c r="AC36" s="37" t="n"/>
-      <c r="AD36" s="38" t="n"/>
-      <c r="AE36" s="17" t="n"/>
-      <c r="AF36" s="19" t="n"/>
-    </row>
-    <row r="37" ht="30" customHeight="1">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="28" t="n"/>
-      <c r="D37" s="30" t="n"/>
-      <c r="E37" s="30" t="n"/>
-      <c r="F37" s="31" t="n"/>
-      <c r="G37" s="31" t="n"/>
-      <c r="H37" s="22" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="9" t="n"/>
-      <c r="K37" s="33" t="n"/>
-      <c r="L37" s="34" t="n"/>
-      <c r="M37" s="34" t="n"/>
-      <c r="N37" s="34" t="n"/>
-      <c r="O37" s="34" t="n"/>
-      <c r="P37" s="34" t="n"/>
-      <c r="Q37" s="35" t="n"/>
-      <c r="R37" s="35" t="n"/>
-      <c r="S37" s="35" t="n"/>
-      <c r="T37" s="35" t="n"/>
-      <c r="U37" s="35" t="n"/>
-      <c r="V37" s="35" t="n"/>
-      <c r="W37" s="35" t="n"/>
-      <c r="X37" s="35" t="n"/>
-      <c r="Y37" s="36" t="n"/>
-      <c r="Z37" s="36" t="n"/>
-      <c r="AA37" s="36" t="n"/>
-      <c r="AB37" s="36" t="n"/>
-      <c r="AC37" s="37" t="n"/>
-      <c r="AD37" s="38" t="n"/>
-      <c r="AE37" s="17" t="n"/>
-      <c r="AF37" s="19" t="n"/>
-    </row>
-    <row r="38" ht="30" customHeight="1">
-      <c r="A38" s="28" t="n"/>
-      <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
-      <c r="D38" s="30" t="n"/>
-      <c r="E38" s="30" t="n"/>
-      <c r="F38" s="31" t="n"/>
-      <c r="G38" s="31" t="n"/>
-      <c r="H38" s="22" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="9" t="n"/>
-      <c r="K38" s="33" t="n"/>
-      <c r="L38" s="34" t="n"/>
-      <c r="M38" s="34" t="n"/>
-      <c r="N38" s="34" t="n"/>
-      <c r="O38" s="34" t="n"/>
-      <c r="P38" s="34" t="n"/>
-      <c r="Q38" s="35" t="n"/>
-      <c r="R38" s="35" t="n"/>
-      <c r="S38" s="35" t="n"/>
-      <c r="T38" s="35" t="n"/>
-      <c r="U38" s="35" t="n"/>
-      <c r="V38" s="35" t="n"/>
-      <c r="W38" s="35" t="n"/>
-      <c r="X38" s="35" t="n"/>
-      <c r="Y38" s="36" t="n"/>
-      <c r="Z38" s="36" t="n"/>
-      <c r="AA38" s="36" t="n"/>
-      <c r="AB38" s="36" t="n"/>
-      <c r="AC38" s="37" t="n"/>
-      <c r="AD38" s="38" t="n"/>
-      <c r="AE38" s="17" t="n"/>
-      <c r="AF38" s="19" t="n"/>
-    </row>
-    <row r="39" ht="30" customHeight="1">
-      <c r="A39" s="28" t="n"/>
-      <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
-      <c r="D39" s="30" t="n"/>
-      <c r="E39" s="30" t="n"/>
-      <c r="F39" s="31" t="n"/>
-      <c r="G39" s="31" t="n"/>
-      <c r="H39" s="22" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="9" t="n"/>
-      <c r="K39" s="33" t="n"/>
-      <c r="L39" s="34" t="n"/>
-      <c r="M39" s="34" t="n"/>
-      <c r="N39" s="34" t="n"/>
-      <c r="O39" s="34" t="n"/>
-      <c r="P39" s="34" t="n"/>
-      <c r="Q39" s="35" t="n"/>
-      <c r="R39" s="35" t="n"/>
-      <c r="S39" s="35" t="n"/>
-      <c r="T39" s="35" t="n"/>
-      <c r="U39" s="35" t="n"/>
-      <c r="V39" s="35" t="n"/>
-      <c r="W39" s="35" t="n"/>
-      <c r="X39" s="35" t="n"/>
-      <c r="Y39" s="36" t="n"/>
-      <c r="Z39" s="36" t="n"/>
-      <c r="AA39" s="36" t="n"/>
-      <c r="AB39" s="36" t="n"/>
-      <c r="AC39" s="37" t="n"/>
-      <c r="AD39" s="38" t="n"/>
-      <c r="AE39" s="17" t="n"/>
-      <c r="AF39" s="19" t="n"/>
-    </row>
-    <row r="40" ht="30" customHeight="1">
-      <c r="A40" s="28" t="n"/>
-      <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
-      <c r="D40" s="30" t="n"/>
-      <c r="E40" s="30" t="n"/>
-      <c r="F40" s="31" t="n"/>
-      <c r="G40" s="31" t="n"/>
-      <c r="H40" s="22" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="9" t="n"/>
-      <c r="K40" s="33" t="n"/>
-      <c r="L40" s="34" t="n"/>
-      <c r="M40" s="34" t="n"/>
-      <c r="N40" s="34" t="n"/>
-      <c r="O40" s="34" t="n"/>
-      <c r="P40" s="34" t="n"/>
-      <c r="Q40" s="35" t="n"/>
-      <c r="R40" s="35" t="n"/>
-      <c r="S40" s="35" t="n"/>
-      <c r="T40" s="35" t="n"/>
-      <c r="U40" s="35" t="n"/>
-      <c r="V40" s="35" t="n"/>
-      <c r="W40" s="35" t="n"/>
-      <c r="X40" s="35" t="n"/>
-      <c r="Y40" s="36" t="n"/>
-      <c r="Z40" s="36" t="n"/>
-      <c r="AA40" s="36" t="n"/>
-      <c r="AB40" s="36" t="n"/>
-      <c r="AC40" s="37" t="n"/>
-      <c r="AD40" s="38" t="n"/>
-      <c r="AE40" s="17" t="n"/>
-      <c r="AF40" s="19" t="n"/>
-    </row>
-    <row r="41" ht="30" customHeight="1">
-      <c r="A41" s="28" t="n"/>
-      <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="n"/>
-      <c r="D41" s="30" t="n"/>
-      <c r="E41" s="30" t="n"/>
-      <c r="F41" s="31" t="n"/>
-      <c r="G41" s="31" t="n"/>
-      <c r="H41" s="22" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="9" t="n"/>
-      <c r="K41" s="33" t="n"/>
-      <c r="L41" s="34" t="n"/>
-      <c r="M41" s="34" t="n"/>
-      <c r="N41" s="34" t="n"/>
-      <c r="O41" s="34" t="n"/>
-      <c r="P41" s="34" t="n"/>
-      <c r="Q41" s="35" t="n"/>
-      <c r="R41" s="35" t="n"/>
-      <c r="S41" s="35" t="n"/>
-      <c r="T41" s="35" t="n"/>
-      <c r="U41" s="35" t="n"/>
-      <c r="V41" s="35" t="n"/>
-      <c r="W41" s="35" t="n"/>
-      <c r="X41" s="35" t="n"/>
-      <c r="Y41" s="36" t="n"/>
-      <c r="Z41" s="36" t="n"/>
-      <c r="AA41" s="36" t="n"/>
-      <c r="AB41" s="36" t="n"/>
-      <c r="AC41" s="37" t="n"/>
-      <c r="AD41" s="38" t="n"/>
-      <c r="AE41" s="17" t="n"/>
-      <c r="AF41" s="19" t="n"/>
-    </row>
-    <row r="42" ht="30" customHeight="1">
-      <c r="A42" s="28" t="n"/>
-      <c r="B42" s="28" t="n"/>
-      <c r="C42" s="28" t="n"/>
-      <c r="D42" s="30" t="n"/>
-      <c r="E42" s="30" t="n"/>
-      <c r="F42" s="31" t="n"/>
-      <c r="G42" s="31" t="n"/>
-      <c r="H42" s="22" t="n"/>
-      <c r="I42" s="12" t="n"/>
-      <c r="J42" s="9" t="n"/>
-      <c r="K42" s="33" t="n"/>
-      <c r="L42" s="34" t="n"/>
-      <c r="M42" s="34" t="n"/>
-      <c r="N42" s="34" t="n"/>
-      <c r="O42" s="34" t="n"/>
-      <c r="P42" s="34" t="n"/>
-      <c r="Q42" s="35" t="n"/>
-      <c r="R42" s="35" t="n"/>
-      <c r="S42" s="35" t="n"/>
-      <c r="T42" s="35" t="n"/>
-      <c r="U42" s="35" t="n"/>
-      <c r="V42" s="35" t="n"/>
-      <c r="W42" s="35" t="n"/>
-      <c r="X42" s="35" t="n"/>
-      <c r="Y42" s="36" t="n"/>
-      <c r="Z42" s="36" t="n"/>
-      <c r="AA42" s="36" t="n"/>
-      <c r="AB42" s="36" t="n"/>
-      <c r="AC42" s="37" t="n"/>
-      <c r="AD42" s="38" t="n"/>
-      <c r="AE42" s="17" t="n"/>
-      <c r="AF42" s="19" t="n"/>
-    </row>
     <row r="43" ht="30" customHeight="1">
-      <c r="A43" s="28" t="n"/>
-      <c r="B43" s="28" t="n"/>
-      <c r="C43" s="28" t="n"/>
-      <c r="D43" s="30" t="n"/>
-      <c r="E43" s="30" t="n"/>
-      <c r="F43" s="31" t="n"/>
-      <c r="G43" s="31" t="n"/>
-      <c r="H43" s="22" t="n"/>
-      <c r="I43" s="12" t="n"/>
-      <c r="J43" s="9" t="n"/>
-      <c r="K43" s="33" t="n"/>
-      <c r="L43" s="34" t="n"/>
-      <c r="M43" s="34" t="n"/>
-      <c r="N43" s="34" t="n"/>
-      <c r="O43" s="34" t="n"/>
-      <c r="P43" s="34" t="n"/>
-      <c r="Q43" s="35" t="n"/>
-      <c r="R43" s="35" t="n"/>
-      <c r="S43" s="35" t="n"/>
-      <c r="T43" s="35" t="n"/>
-      <c r="U43" s="35" t="n"/>
-      <c r="V43" s="35" t="n"/>
-      <c r="W43" s="35" t="n"/>
-      <c r="X43" s="35" t="n"/>
-      <c r="Y43" s="36" t="n"/>
-      <c r="Z43" s="36" t="n"/>
-      <c r="AA43" s="36" t="n"/>
-      <c r="AB43" s="36" t="n"/>
-      <c r="AC43" s="37" t="n"/>
-      <c r="AD43" s="38" t="n"/>
-      <c r="AE43" s="17" t="n"/>
-      <c r="AF43" s="19" t="n"/>
+      <c r="A43" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B43" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C43" s="28" t="inlineStr">
+        <is>
+          <t>22ESI01-3</t>
+        </is>
+      </c>
+      <c r="D43" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E43" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F43" s="31" t="inlineStr">
+        <is>
+          <t>22-09-2022</t>
+        </is>
+      </c>
+      <c r="G43" s="31" t="inlineStr">
+        <is>
+          <t>17-06-2023</t>
+        </is>
+      </c>
+      <c r="H43" s="22" t="inlineStr">
+        <is>
+          <t>Esi Okyere - Ghana</t>
+        </is>
+      </c>
+      <c r="I43" s="12" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="J43" s="9" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K43" s="33" t="n">
+        <v>12890.35</v>
+      </c>
+      <c r="L43" s="34" t="n">
+        <v>3452.1515</v>
+      </c>
+      <c r="M43" s="34" t="n">
+        <v>2272.05</v>
+      </c>
+      <c r="N43" s="34" t="n">
+        <v>2722.962</v>
+      </c>
+      <c r="O43" s="34" t="n">
+        <v>216.44</v>
+      </c>
+      <c r="P43" s="34" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="Q43" s="35" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="R43" s="35" t="n">
+        <v>400</v>
+      </c>
+      <c r="S43" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="36" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AB43" s="36" t="n">
+        <v>24.62</v>
+      </c>
+      <c r="AC43" s="37" t="n">
+        <v>9163.8035</v>
+      </c>
+      <c r="AD43" s="38" t="n">
+        <v>3726.5465</v>
+      </c>
+      <c r="AE43" s="17" t="n">
+        <v>97635.5183</v>
+      </c>
+      <c r="AF43" s="19" t="inlineStr">
+        <is>
+          <t>12-07-2023</t>
+        </is>
+      </c>
     </row>
     <row r="44" ht="30" customHeight="1">
-      <c r="A44" s="28" t="n"/>
-      <c r="B44" s="28" t="n"/>
-      <c r="C44" s="28" t="n"/>
-      <c r="D44" s="30" t="n"/>
-      <c r="E44" s="30" t="n"/>
-      <c r="F44" s="31" t="n"/>
-      <c r="G44" s="31" t="n"/>
-      <c r="H44" s="22" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="9" t="n"/>
-      <c r="K44" s="33" t="n"/>
-      <c r="L44" s="34" t="n"/>
-      <c r="M44" s="34" t="n"/>
-      <c r="N44" s="34" t="n"/>
-      <c r="O44" s="34" t="n"/>
-      <c r="P44" s="34" t="n"/>
-      <c r="Q44" s="35" t="n"/>
-      <c r="R44" s="35" t="n"/>
-      <c r="S44" s="35" t="n"/>
-      <c r="T44" s="35" t="n"/>
-      <c r="U44" s="35" t="n"/>
-      <c r="V44" s="35" t="n"/>
-      <c r="W44" s="35" t="n"/>
-      <c r="X44" s="35" t="n"/>
-      <c r="Y44" s="36" t="n"/>
-      <c r="Z44" s="36" t="n"/>
-      <c r="AA44" s="36" t="n"/>
-      <c r="AB44" s="36" t="n"/>
-      <c r="AC44" s="37" t="n"/>
-      <c r="AD44" s="38" t="n"/>
-      <c r="AE44" s="17" t="n"/>
-      <c r="AF44" s="19" t="n"/>
+      <c r="A44" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B44" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C44" s="28" t="inlineStr">
+        <is>
+          <t>22AURA01-4</t>
+        </is>
+      </c>
+      <c r="D44" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E44" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F44" s="31" t="inlineStr">
+        <is>
+          <t>25-11-2022</t>
+        </is>
+      </c>
+      <c r="G44" s="31" t="inlineStr">
+        <is>
+          <t>19-06-2023</t>
+        </is>
+      </c>
+      <c r="H44" s="22" t="inlineStr">
+        <is>
+          <t>Carl Max - Ghana</t>
+        </is>
+      </c>
+      <c r="I44" s="12" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="J44" s="9" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K44" s="33" t="n">
+        <v>51165.24</v>
+      </c>
+      <c r="L44" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="34" t="n">
+        <v>36650.99</v>
+      </c>
+      <c r="O44" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" s="34" t="n">
+        <v>44.11</v>
+      </c>
+      <c r="Q44" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" s="35" t="n">
+        <v>400</v>
+      </c>
+      <c r="S44" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" s="35" t="n">
+        <v>1520</v>
+      </c>
+      <c r="U44" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="36" t="n">
+        <v>1280</v>
+      </c>
+      <c r="AA44" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="36" t="n">
+        <v>24.56</v>
+      </c>
+      <c r="AC44" s="37" t="n">
+        <v>39919.66</v>
+      </c>
+      <c r="AD44" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="30" customHeight="1">
-      <c r="A45" s="28" t="n"/>
-      <c r="B45" s="28" t="n"/>
-      <c r="C45" s="28" t="n"/>
-      <c r="D45" s="30" t="n"/>
-      <c r="E45" s="30" t="n"/>
-      <c r="F45" s="31" t="n"/>
-      <c r="G45" s="31" t="n"/>
-      <c r="H45" s="22" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="9" t="n"/>
-      <c r="K45" s="33" t="n"/>
-      <c r="L45" s="34" t="n"/>
-      <c r="M45" s="34" t="n"/>
-      <c r="N45" s="34" t="n"/>
-      <c r="O45" s="34" t="n"/>
-      <c r="P45" s="34" t="n"/>
-      <c r="Q45" s="35" t="n"/>
-      <c r="R45" s="35" t="n"/>
-      <c r="S45" s="35" t="n"/>
-      <c r="T45" s="35" t="n"/>
-      <c r="U45" s="35" t="n"/>
-      <c r="V45" s="35" t="n"/>
-      <c r="W45" s="35" t="n"/>
-      <c r="X45" s="35" t="n"/>
-      <c r="Y45" s="36" t="n"/>
-      <c r="Z45" s="36" t="n"/>
-      <c r="AA45" s="36" t="n"/>
-      <c r="AB45" s="36" t="n"/>
-      <c r="AC45" s="37" t="n"/>
-      <c r="AD45" s="38" t="n"/>
-      <c r="AE45" s="17" t="n"/>
-      <c r="AF45" s="19" t="n"/>
+      <c r="A45" s="28" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="B45" s="28" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C45" s="28" t="inlineStr">
+        <is>
+          <t>23ARSEA01</t>
+        </is>
+      </c>
+      <c r="D45" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E45" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F45" s="31" t="inlineStr">
+        <is>
+          <t>15-05-2023</t>
+        </is>
+      </c>
+      <c r="G45" s="31" t="inlineStr">
+        <is>
+          <t>19-06-2023</t>
+        </is>
+      </c>
+      <c r="H45" s="22" t="inlineStr">
+        <is>
+          <t>Mr. Gordon - Singapore</t>
+        </is>
+      </c>
+      <c r="I45" s="12" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="J45" s="9" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="K45" s="33" t="n">
+        <v>66911.28</v>
+      </c>
+      <c r="L45" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" s="34" t="n">
+        <v>48358.8</v>
+      </c>
+      <c r="O45" s="34" t="n">
+        <v>216.44</v>
+      </c>
+      <c r="P45" s="34" t="n">
+        <v>100.41</v>
+      </c>
+      <c r="Q45" s="35" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="R45" s="35" t="n">
+        <v>800</v>
+      </c>
+      <c r="S45" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" s="35" t="n">
+        <v>150</v>
+      </c>
+      <c r="U45" s="35" t="n">
+        <v>200</v>
+      </c>
+      <c r="V45" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="36" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="AB45" s="36" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="AC45" s="37" t="n">
+        <v>49976.81</v>
+      </c>
+      <c r="AD45" s="38" t="n">
+        <v>16934.47</v>
+      </c>
+      <c r="AE45" s="17" t="n">
+        <v>442667.0458</v>
+      </c>
+      <c r="AF45" s="19" t="inlineStr">
+        <is>
+          <t>10-07-2023</t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="30" customHeight="1">
-      <c r="A46" s="28" t="n"/>
-      <c r="B46" s="28" t="n"/>
-      <c r="C46" s="28" t="n"/>
-      <c r="D46" s="30" t="n"/>
-      <c r="E46" s="30" t="n"/>
-      <c r="F46" s="31" t="n"/>
-      <c r="G46" s="31" t="n"/>
-      <c r="H46" s="22" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="9" t="n"/>
-      <c r="K46" s="33" t="n"/>
-      <c r="L46" s="34" t="n"/>
-      <c r="M46" s="34" t="n"/>
-      <c r="N46" s="34" t="n"/>
-      <c r="O46" s="34" t="n"/>
-      <c r="P46" s="34" t="n"/>
-      <c r="Q46" s="35" t="n"/>
-      <c r="R46" s="35" t="n"/>
-      <c r="S46" s="35" t="n"/>
-      <c r="T46" s="35" t="n"/>
-      <c r="U46" s="35" t="n"/>
-      <c r="V46" s="35" t="n"/>
-      <c r="W46" s="35" t="n"/>
-      <c r="X46" s="35" t="n"/>
-      <c r="Y46" s="36" t="n"/>
-      <c r="Z46" s="36" t="n"/>
-      <c r="AA46" s="36" t="n"/>
-      <c r="AB46" s="36" t="n"/>
-      <c r="AC46" s="37" t="n"/>
-      <c r="AD46" s="38" t="n"/>
-      <c r="AE46" s="17" t="n"/>
-      <c r="AF46" s="19" t="n"/>
+      <c r="A46" s="28" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="B46" s="28" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C46" s="28" t="inlineStr">
+        <is>
+          <t>23DON02</t>
+        </is>
+      </c>
+      <c r="D46" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E46" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F46" s="31" t="inlineStr">
+        <is>
+          <t>10-06-2023</t>
+        </is>
+      </c>
+      <c r="G46" s="31" t="inlineStr">
+        <is>
+          <t>19-06-2023</t>
+        </is>
+      </c>
+      <c r="H46" s="22" t="inlineStr">
+        <is>
+          <t>Donald Gorski - USA</t>
+        </is>
+      </c>
+      <c r="I46" s="12" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="J46" s="9" t="inlineStr">
+        <is>
+          <t>DDP</t>
+        </is>
+      </c>
+      <c r="K46" s="33" t="n">
+        <v>3750</v>
+      </c>
+      <c r="L46" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="34" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O46" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="37" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AD46" s="38" t="n">
+        <v>750</v>
+      </c>
+      <c r="AE46" s="17" t="n">
+        <v>18997.5</v>
+      </c>
+      <c r="AF46" s="19" t="inlineStr">
+        <is>
+          <t>01-07-2023</t>
+        </is>
+      </c>
     </row>
     <row r="47" ht="30" customHeight="1">
-      <c r="A47" s="28" t="n"/>
-      <c r="B47" s="28" t="n"/>
-      <c r="C47" s="28" t="n"/>
-      <c r="D47" s="30" t="n"/>
-      <c r="E47" s="30" t="n"/>
-      <c r="F47" s="31" t="n"/>
-      <c r="G47" s="31" t="n"/>
-      <c r="H47" s="22" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="9" t="n"/>
-      <c r="K47" s="33" t="n"/>
-      <c r="L47" s="34" t="n"/>
-      <c r="M47" s="34" t="n"/>
-      <c r="N47" s="34" t="n"/>
-      <c r="O47" s="34" t="n"/>
-      <c r="P47" s="34" t="n"/>
-      <c r="Q47" s="35" t="n"/>
-      <c r="R47" s="35" t="n"/>
-      <c r="S47" s="35" t="n"/>
-      <c r="T47" s="35" t="n"/>
-      <c r="U47" s="35" t="n"/>
-      <c r="V47" s="35" t="n"/>
-      <c r="W47" s="35" t="n"/>
-      <c r="X47" s="35" t="n"/>
-      <c r="Y47" s="36" t="n"/>
-      <c r="Z47" s="36" t="n"/>
-      <c r="AA47" s="36" t="n"/>
-      <c r="AB47" s="36" t="n"/>
-      <c r="AC47" s="37" t="n"/>
-      <c r="AD47" s="38" t="n"/>
-      <c r="AE47" s="17" t="n"/>
-      <c r="AF47" s="19" t="n"/>
+      <c r="A47" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B47" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C47" s="28" t="inlineStr">
+        <is>
+          <t>23AURA02-2</t>
+        </is>
+      </c>
+      <c r="D47" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E47" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F47" s="31" t="inlineStr">
+        <is>
+          <t>07-02-2023</t>
+        </is>
+      </c>
+      <c r="G47" s="31" t="inlineStr">
+        <is>
+          <t>19-06-2023</t>
+        </is>
+      </c>
+      <c r="H47" s="22" t="inlineStr">
+        <is>
+          <t>Carl Max - Ghana</t>
+        </is>
+      </c>
+      <c r="I47" s="12" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="J47" s="9" t="inlineStr">
+        <is>
+          <t>FOB</t>
+        </is>
+      </c>
+      <c r="K47" s="33" t="n">
+        <v>14703.36</v>
+      </c>
+      <c r="L47" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="34" t="n">
+        <v>11401.9</v>
+      </c>
+      <c r="O47" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB47" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="37" t="n">
+        <v>11404.65</v>
+      </c>
+      <c r="AD47" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="30" customHeight="1">
-      <c r="A48" s="28" t="n"/>
-      <c r="B48" s="28" t="n"/>
-      <c r="C48" s="28" t="n"/>
-      <c r="D48" s="30" t="n"/>
-      <c r="E48" s="30" t="n"/>
-      <c r="F48" s="31" t="n"/>
-      <c r="G48" s="31" t="n"/>
-      <c r="H48" s="22" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="9" t="n"/>
-      <c r="K48" s="33" t="n"/>
-      <c r="L48" s="34" t="n"/>
-      <c r="M48" s="34" t="n"/>
-      <c r="N48" s="34" t="n"/>
-      <c r="O48" s="34" t="n"/>
-      <c r="P48" s="34" t="n"/>
-      <c r="Q48" s="35" t="n"/>
-      <c r="R48" s="35" t="n"/>
-      <c r="S48" s="35" t="n"/>
-      <c r="T48" s="35" t="n"/>
-      <c r="U48" s="35" t="n"/>
-      <c r="V48" s="35" t="n"/>
-      <c r="W48" s="35" t="n"/>
-      <c r="X48" s="35" t="n"/>
-      <c r="Y48" s="36" t="n"/>
-      <c r="Z48" s="36" t="n"/>
-      <c r="AA48" s="36" t="n"/>
-      <c r="AB48" s="36" t="n"/>
-      <c r="AC48" s="37" t="n"/>
-      <c r="AD48" s="38" t="n"/>
-      <c r="AE48" s="17" t="n"/>
-      <c r="AF48" s="19" t="n"/>
+      <c r="A48" s="28" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="B48" s="28" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C48" s="28" t="inlineStr">
+        <is>
+          <t>23EURL01-3</t>
+        </is>
+      </c>
+      <c r="D48" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E48" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F48" s="31" t="inlineStr">
+        <is>
+          <t>07-03-2023</t>
+        </is>
+      </c>
+      <c r="G48" s="31" t="inlineStr">
+        <is>
+          <t>20-06-2023</t>
+        </is>
+      </c>
+      <c r="H48" s="22" t="inlineStr">
+        <is>
+          <t>Bruno Perre - France</t>
+        </is>
+      </c>
+      <c r="I48" s="12" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="J48" s="9" t="inlineStr">
+        <is>
+          <t>DAP</t>
+        </is>
+      </c>
+      <c r="K48" s="33" t="n">
+        <v>28948.86</v>
+      </c>
+      <c r="L48" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="34" t="n">
+        <v>20514.87</v>
+      </c>
+      <c r="O48" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" s="34" t="n">
+        <v>314.54</v>
+      </c>
+      <c r="Q48" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" s="35" t="n">
+        <v>400</v>
+      </c>
+      <c r="S48" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" s="35" t="n">
+        <v>2522</v>
+      </c>
+      <c r="U48" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="36" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="AC48" s="37" t="n">
+        <v>23769.37</v>
+      </c>
+      <c r="AD48" s="38" t="n">
+        <v>5179.49</v>
+      </c>
+      <c r="AE48" s="17" t="n">
+        <v>131196.4817</v>
+      </c>
+      <c r="AF48" s="19" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
     </row>
     <row r="49" ht="30" customHeight="1">
-      <c r="A49" s="28" t="n"/>
-      <c r="B49" s="28" t="n"/>
-      <c r="C49" s="28" t="n"/>
-      <c r="D49" s="30" t="n"/>
-      <c r="E49" s="30" t="n"/>
-      <c r="F49" s="31" t="n"/>
-      <c r="G49" s="31" t="n"/>
-      <c r="H49" s="22" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="9" t="n"/>
-      <c r="K49" s="33" t="n"/>
-      <c r="L49" s="34" t="n"/>
-      <c r="M49" s="34" t="n"/>
-      <c r="N49" s="34" t="n"/>
-      <c r="O49" s="34" t="n"/>
-      <c r="P49" s="34" t="n"/>
-      <c r="Q49" s="35" t="n"/>
-      <c r="R49" s="35" t="n"/>
-      <c r="S49" s="35" t="n"/>
-      <c r="T49" s="35" t="n"/>
-      <c r="U49" s="35" t="n"/>
-      <c r="V49" s="35" t="n"/>
-      <c r="W49" s="35" t="n"/>
-      <c r="X49" s="35" t="n"/>
-      <c r="Y49" s="36" t="n"/>
-      <c r="Z49" s="36" t="n"/>
-      <c r="AA49" s="36" t="n"/>
-      <c r="AB49" s="36" t="n"/>
-      <c r="AC49" s="37" t="n"/>
-      <c r="AD49" s="38" t="n"/>
-      <c r="AE49" s="17" t="n"/>
-      <c r="AF49" s="19" t="n"/>
+      <c r="A49" s="28" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B49" s="28" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C49" s="28" t="inlineStr">
+        <is>
+          <t>23PM03-4</t>
+        </is>
+      </c>
+      <c r="D49" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E49" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F49" s="31" t="inlineStr">
+        <is>
+          <t>24-04-2023</t>
+        </is>
+      </c>
+      <c r="G49" s="31" t="inlineStr">
+        <is>
+          <t>20-06-2023</t>
+        </is>
+      </c>
+      <c r="H49" s="22" t="inlineStr">
+        <is>
+          <t>Patrick - Germany</t>
+        </is>
+      </c>
+      <c r="I49" s="12" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J49" s="9" t="inlineStr">
+        <is>
+          <t>FOB</t>
+        </is>
+      </c>
+      <c r="K49" s="33" t="n">
+        <v>27412.5</v>
+      </c>
+      <c r="L49" s="34" t="n">
+        <v>2305.8</v>
+      </c>
+      <c r="M49" s="34" t="n">
+        <v>5766.57</v>
+      </c>
+      <c r="N49" s="34" t="n">
+        <v>13791.24</v>
+      </c>
+      <c r="O49" s="34" t="n">
+        <v>227.83</v>
+      </c>
+      <c r="P49" s="34" t="n">
+        <v>51.53</v>
+      </c>
+      <c r="Q49" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" s="35" t="n">
+        <v>400</v>
+      </c>
+      <c r="S49" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="36" t="n">
+        <v>49.11</v>
+      </c>
+      <c r="AB49" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="37" t="n">
+        <v>22598</v>
+      </c>
+      <c r="AD49" s="38" t="n">
+        <v>4814.5</v>
+      </c>
+      <c r="AE49" s="17" t="n">
+        <v>125802.885</v>
+      </c>
+      <c r="AF49" s="19" t="inlineStr">
+        <is>
+          <t>05-07-2023</t>
+        </is>
+      </c>
     </row>
     <row r="50" ht="30" customHeight="1">
-      <c r="A50" s="28" t="n"/>
-      <c r="B50" s="28" t="n"/>
-      <c r="C50" s="28" t="n"/>
-      <c r="D50" s="30" t="n"/>
-      <c r="E50" s="30" t="n"/>
-      <c r="F50" s="31" t="n"/>
-      <c r="G50" s="31" t="n"/>
-      <c r="H50" s="22" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="9" t="n"/>
-      <c r="K50" s="33" t="n"/>
-      <c r="L50" s="34" t="n"/>
-      <c r="M50" s="34" t="n"/>
-      <c r="N50" s="34" t="n"/>
-      <c r="O50" s="34" t="n"/>
-      <c r="P50" s="34" t="n"/>
-      <c r="Q50" s="35" t="n"/>
-      <c r="R50" s="35" t="n"/>
-      <c r="S50" s="35" t="n"/>
-      <c r="T50" s="35" t="n"/>
-      <c r="U50" s="35" t="n"/>
-      <c r="V50" s="35" t="n"/>
-      <c r="W50" s="35" t="n"/>
-      <c r="X50" s="35" t="n"/>
-      <c r="Y50" s="36" t="n"/>
-      <c r="Z50" s="36" t="n"/>
-      <c r="AA50" s="36" t="n"/>
-      <c r="AB50" s="36" t="n"/>
-      <c r="AC50" s="37" t="n"/>
-      <c r="AD50" s="38" t="n"/>
-      <c r="AE50" s="17" t="n"/>
-      <c r="AF50" s="19" t="n"/>
+      <c r="A50" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B50" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C50" s="28" t="inlineStr">
+        <is>
+          <t>23PP16</t>
+        </is>
+      </c>
+      <c r="D50" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E50" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F50" s="31" t="inlineStr">
+        <is>
+          <t>04-04-2023</t>
+        </is>
+      </c>
+      <c r="G50" s="31" t="inlineStr">
+        <is>
+          <t>20-06-2023</t>
+        </is>
+      </c>
+      <c r="H50" s="22" t="inlineStr">
+        <is>
+          <t>Bigeni - Malta</t>
+        </is>
+      </c>
+      <c r="I50" s="12" t="inlineStr">
+        <is>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="J50" s="9" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K50" s="33" t="n">
+        <v>27352.65</v>
+      </c>
+      <c r="L50" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" s="34" t="n">
+        <v>14075.34</v>
+      </c>
+      <c r="O50" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" s="34" t="n">
+        <v>49.83</v>
+      </c>
+      <c r="Q50" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" s="35" t="n">
+        <v>400</v>
+      </c>
+      <c r="S50" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" s="35" t="n">
+        <v>1050</v>
+      </c>
+      <c r="U50" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="36" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA50" s="36" t="n">
+        <v>28.09</v>
+      </c>
+      <c r="AB50" s="36" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="AC50" s="37" t="n">
+        <v>15807.37</v>
+      </c>
+      <c r="AD50" s="38" t="n">
+        <v>11545.28</v>
+      </c>
+      <c r="AE50" s="17" t="n">
+        <v>299138.2048</v>
+      </c>
+      <c r="AF50" s="19" t="inlineStr">
+        <is>
+          <t>26-06-2023</t>
+        </is>
+      </c>
     </row>
     <row r="51" ht="30" customHeight="1">
-      <c r="A51" s="28" t="n"/>
-      <c r="B51" s="28" t="n"/>
-      <c r="C51" s="28" t="n"/>
-      <c r="D51" s="30" t="n"/>
-      <c r="E51" s="30" t="n"/>
-      <c r="F51" s="31" t="n"/>
-      <c r="G51" s="31" t="n"/>
-      <c r="H51" s="22" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="9" t="n"/>
-      <c r="K51" s="33" t="n"/>
-      <c r="L51" s="34" t="n"/>
-      <c r="M51" s="34" t="n"/>
-      <c r="N51" s="34" t="n"/>
-      <c r="O51" s="34" t="n"/>
-      <c r="P51" s="34" t="n"/>
-      <c r="Q51" s="35" t="n"/>
-      <c r="R51" s="35" t="n"/>
-      <c r="S51" s="35" t="n"/>
-      <c r="T51" s="35" t="n"/>
-      <c r="U51" s="35" t="n"/>
-      <c r="V51" s="35" t="n"/>
-      <c r="W51" s="35" t="n"/>
-      <c r="X51" s="35" t="n"/>
-      <c r="Y51" s="36" t="n"/>
-      <c r="Z51" s="36" t="n"/>
-      <c r="AA51" s="36" t="n"/>
-      <c r="AB51" s="36" t="n"/>
-      <c r="AC51" s="37" t="n"/>
-      <c r="AD51" s="38" t="n"/>
-      <c r="AE51" s="17" t="n"/>
-      <c r="AF51" s="19" t="n"/>
+      <c r="A51" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B51" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C51" s="28" t="inlineStr">
+        <is>
+          <t>23RASMA01</t>
+        </is>
+      </c>
+      <c r="D51" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E51" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F51" s="31" t="inlineStr">
+        <is>
+          <t>13-04-2023</t>
+        </is>
+      </c>
+      <c r="G51" s="31" t="inlineStr">
+        <is>
+          <t>22-06-2023</t>
+        </is>
+      </c>
+      <c r="H51" s="22" t="inlineStr">
+        <is>
+          <t>Rasma Decor - BH</t>
+        </is>
+      </c>
+      <c r="I51" s="12" t="inlineStr">
+        <is>
+          <t>Bahrain</t>
+        </is>
+      </c>
+      <c r="J51" s="9" t="inlineStr">
+        <is>
+          <t>DAP</t>
+        </is>
+      </c>
+      <c r="K51" s="33" t="n">
+        <v>39829.57</v>
+      </c>
+      <c r="L51" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" s="34" t="n">
+        <v>25285.12</v>
+      </c>
+      <c r="O51" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" s="34" t="n">
+        <v>74.36</v>
+      </c>
+      <c r="Q51" s="35" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="R51" s="35" t="n">
+        <v>1200</v>
+      </c>
+      <c r="S51" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" s="35" t="n">
+        <v>2070</v>
+      </c>
+      <c r="U51" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="36" t="n">
+        <v>92.37</v>
+      </c>
+      <c r="AB51" s="36" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="AC51" s="37" t="n">
+        <v>28784.93</v>
+      </c>
+      <c r="AD51" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="52" ht="30" customHeight="1">
-      <c r="A52" s="28" t="n"/>
-      <c r="B52" s="28" t="n"/>
-      <c r="C52" s="28" t="n"/>
-      <c r="D52" s="30" t="n"/>
-      <c r="E52" s="30" t="n"/>
-      <c r="F52" s="31" t="n"/>
-      <c r="G52" s="31" t="n"/>
-      <c r="H52" s="22" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="9" t="n"/>
-      <c r="K52" s="33" t="n"/>
-      <c r="L52" s="34" t="n"/>
-      <c r="M52" s="34" t="n"/>
-      <c r="N52" s="34" t="n"/>
-      <c r="O52" s="34" t="n"/>
-      <c r="P52" s="34" t="n"/>
-      <c r="Q52" s="35" t="n"/>
-      <c r="R52" s="35" t="n"/>
-      <c r="S52" s="35" t="n"/>
-      <c r="T52" s="35" t="n"/>
-      <c r="U52" s="35" t="n"/>
-      <c r="V52" s="35" t="n"/>
-      <c r="W52" s="35" t="n"/>
-      <c r="X52" s="35" t="n"/>
-      <c r="Y52" s="36" t="n"/>
-      <c r="Z52" s="36" t="n"/>
-      <c r="AA52" s="36" t="n"/>
-      <c r="AB52" s="36" t="n"/>
-      <c r="AC52" s="37" t="n"/>
-      <c r="AD52" s="38" t="n"/>
-      <c r="AE52" s="17" t="n"/>
-      <c r="AF52" s="19" t="n"/>
+      <c r="A52" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B52" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C52" s="28" t="inlineStr">
+        <is>
+          <t>23HOGA10</t>
+        </is>
+      </c>
+      <c r="D52" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E52" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F52" s="31" t="inlineStr">
+        <is>
+          <t>06-05-2023</t>
+        </is>
+      </c>
+      <c r="G52" s="31" t="inlineStr">
+        <is>
+          <t>22-06-2023</t>
+        </is>
+      </c>
+      <c r="H52" s="22" t="inlineStr">
+        <is>
+          <t>Hotel Gab - Romania</t>
+        </is>
+      </c>
+      <c r="I52" s="12" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="J52" s="9" t="inlineStr">
+        <is>
+          <t>FCA</t>
+        </is>
+      </c>
+      <c r="K52" s="33" t="n">
+        <v>11374.95</v>
+      </c>
+      <c r="L52" s="34" t="n">
+        <v>265.1575</v>
+      </c>
+      <c r="M52" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" s="34" t="n">
+        <v>5610</v>
+      </c>
+      <c r="O52" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" s="34" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="Q52" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="36" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="AB52" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="37" t="n">
+        <v>5909.8775</v>
+      </c>
+      <c r="AD52" s="38" t="n">
+        <v>5465.0725</v>
+      </c>
+      <c r="AE52" s="17" t="n">
+        <v>129412.9168</v>
+      </c>
+      <c r="AF52" s="19" t="inlineStr">
+        <is>
+          <t>14-06-2023</t>
+        </is>
+      </c>
     </row>
     <row r="53" ht="30" customHeight="1">
-      <c r="A53" s="28" t="n"/>
-      <c r="B53" s="28" t="n"/>
-      <c r="C53" s="28" t="n"/>
-      <c r="D53" s="30" t="n"/>
-      <c r="E53" s="30" t="n"/>
-      <c r="F53" s="31" t="n"/>
-      <c r="G53" s="31" t="n"/>
-      <c r="H53" s="22" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="9" t="n"/>
-      <c r="K53" s="33" t="n"/>
-      <c r="L53" s="34" t="n"/>
-      <c r="M53" s="34" t="n"/>
-      <c r="N53" s="34" t="n"/>
-      <c r="O53" s="34" t="n"/>
-      <c r="P53" s="34" t="n"/>
-      <c r="Q53" s="35" t="n"/>
-      <c r="R53" s="35" t="n"/>
-      <c r="S53" s="35" t="n"/>
-      <c r="T53" s="35" t="n"/>
-      <c r="U53" s="35" t="n"/>
-      <c r="V53" s="35" t="n"/>
-      <c r="W53" s="35" t="n"/>
-      <c r="X53" s="35" t="n"/>
-      <c r="Y53" s="36" t="n"/>
-      <c r="Z53" s="36" t="n"/>
-      <c r="AA53" s="36" t="n"/>
-      <c r="AB53" s="36" t="n"/>
-      <c r="AC53" s="37" t="n"/>
-      <c r="AD53" s="38" t="n"/>
-      <c r="AE53" s="17" t="n"/>
-      <c r="AF53" s="19" t="n"/>
+      <c r="A53" s="28" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B53" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C53" s="28" t="inlineStr">
+        <is>
+          <t>22COS28</t>
+        </is>
+      </c>
+      <c r="D53" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E53" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F53" s="31" t="inlineStr">
+        <is>
+          <t>27-10-2022</t>
+        </is>
+      </c>
+      <c r="G53" s="31" t="inlineStr">
+        <is>
+          <t>22-06-2023</t>
+        </is>
+      </c>
+      <c r="H53" s="22" t="inlineStr">
+        <is>
+          <t>Kirill - Russia</t>
+        </is>
+      </c>
+      <c r="I53" s="12" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="J53" s="9" t="inlineStr">
+        <is>
+          <t>FOB</t>
+        </is>
+      </c>
+      <c r="K53" s="33" t="n">
+        <v>23741.96</v>
+      </c>
+      <c r="L53" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="34" t="n">
+        <v>17297.42525</v>
+      </c>
+      <c r="O53" s="34" t="n">
+        <v>361.17</v>
+      </c>
+      <c r="P53" s="34" t="n">
+        <v>46.78</v>
+      </c>
+      <c r="Q53" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" s="35" t="n">
+        <v>400</v>
+      </c>
+      <c r="S53" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="36" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="AC53" s="37" t="n">
+        <v>18128.05525</v>
+      </c>
+      <c r="AD53" s="38" t="n">
+        <v>5613.90475</v>
+      </c>
+      <c r="AE53" s="17" t="n">
+        <v>132937.26448</v>
+      </c>
+      <c r="AF53" s="19" t="inlineStr">
+        <is>
+          <t>14-06-2023</t>
+        </is>
+      </c>
     </row>
     <row r="54" ht="30" customHeight="1">
-      <c r="A54" s="28" t="n"/>
-      <c r="B54" s="28" t="n"/>
-      <c r="C54" s="28" t="n"/>
-      <c r="D54" s="30" t="n"/>
-      <c r="E54" s="30" t="n"/>
-      <c r="F54" s="31" t="n"/>
-      <c r="G54" s="31" t="n"/>
-      <c r="H54" s="22" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="9" t="n"/>
-      <c r="K54" s="33" t="n"/>
-      <c r="L54" s="34" t="n"/>
-      <c r="M54" s="34" t="n"/>
-      <c r="N54" s="34" t="n"/>
-      <c r="O54" s="34" t="n"/>
-      <c r="P54" s="34" t="n"/>
-      <c r="Q54" s="35" t="n"/>
-      <c r="R54" s="35" t="n"/>
-      <c r="S54" s="35" t="n"/>
-      <c r="T54" s="35" t="n"/>
-      <c r="U54" s="35" t="n"/>
-      <c r="V54" s="35" t="n"/>
-      <c r="W54" s="35" t="n"/>
-      <c r="X54" s="35" t="n"/>
-      <c r="Y54" s="36" t="n"/>
-      <c r="Z54" s="36" t="n"/>
-      <c r="AA54" s="36" t="n"/>
-      <c r="AB54" s="36" t="n"/>
-      <c r="AC54" s="37" t="n"/>
-      <c r="AD54" s="38" t="n"/>
-      <c r="AE54" s="17" t="n"/>
-      <c r="AF54" s="19" t="n"/>
+      <c r="A54" s="28" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B54" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C54" s="28" t="inlineStr">
+        <is>
+          <t>23RGL06</t>
+        </is>
+      </c>
+      <c r="D54" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E54" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F54" s="31" t="inlineStr">
+        <is>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="G54" s="31" t="inlineStr">
+        <is>
+          <t>22-06-2023</t>
+        </is>
+      </c>
+      <c r="H54" s="22" t="inlineStr">
+        <is>
+          <t>Ben Persell Thompson - UK</t>
+        </is>
+      </c>
+      <c r="I54" s="12" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="J54" s="9" t="inlineStr">
+        <is>
+          <t>FCA</t>
+        </is>
+      </c>
+      <c r="K54" s="33" t="n">
+        <v>12415.79</v>
+      </c>
+      <c r="L54" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" s="34" t="n">
+        <v>4003.77075</v>
+      </c>
+      <c r="O54" s="34" t="n">
+        <v>240.61</v>
+      </c>
+      <c r="P54" s="34" t="n">
+        <v>27.04</v>
+      </c>
+      <c r="Q54" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" s="35" t="n">
+        <v>2195</v>
+      </c>
+      <c r="U54" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="36" t="n">
+        <v>568</v>
+      </c>
+      <c r="AA54" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="37" t="n">
+        <v>7034.42075</v>
+      </c>
+      <c r="AD54" s="38" t="n">
+        <v>5381.36925</v>
+      </c>
+      <c r="AE54" s="17" t="n">
+        <v>115860.8799525</v>
+      </c>
+      <c r="AF54" s="19" t="inlineStr">
+        <is>
+          <t>06-06-2023</t>
+        </is>
+      </c>
     </row>
     <row r="55" ht="30" customHeight="1">
-      <c r="A55" s="28" t="n"/>
-      <c r="B55" s="28" t="n"/>
-      <c r="C55" s="28" t="n"/>
-      <c r="D55" s="30" t="n"/>
-      <c r="E55" s="30" t="n"/>
-      <c r="F55" s="31" t="n"/>
-      <c r="G55" s="31" t="n"/>
-      <c r="H55" s="22" t="n"/>
-      <c r="I55" s="12" t="n"/>
-      <c r="J55" s="9" t="n"/>
-      <c r="K55" s="33" t="n"/>
-      <c r="L55" s="34" t="n"/>
-      <c r="M55" s="34" t="n"/>
-      <c r="N55" s="34" t="n"/>
-      <c r="O55" s="34" t="n"/>
-      <c r="P55" s="34" t="n"/>
-      <c r="Q55" s="35" t="n"/>
-      <c r="R55" s="35" t="n"/>
-      <c r="S55" s="35" t="n"/>
-      <c r="T55" s="35" t="n"/>
-      <c r="U55" s="35" t="n"/>
-      <c r="V55" s="35" t="n"/>
-      <c r="W55" s="35" t="n"/>
-      <c r="X55" s="35" t="n"/>
-      <c r="Y55" s="36" t="n"/>
-      <c r="Z55" s="36" t="n"/>
-      <c r="AA55" s="36" t="n"/>
-      <c r="AB55" s="36" t="n"/>
-      <c r="AC55" s="37" t="n"/>
-      <c r="AD55" s="38" t="n"/>
-      <c r="AE55" s="17" t="n"/>
-      <c r="AF55" s="19" t="n"/>
+      <c r="A55" s="28" t="inlineStr">
+        <is>
+          <t>Mehmet</t>
+        </is>
+      </c>
+      <c r="B55" s="28" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="C55" s="28" t="inlineStr">
+        <is>
+          <t>23BAC01</t>
+        </is>
+      </c>
+      <c r="D55" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E55" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F55" s="31" t="inlineStr">
+        <is>
+          <t>10-05-2023</t>
+        </is>
+      </c>
+      <c r="G55" s="31" t="inlineStr">
+        <is>
+          <t>22-06-2023</t>
+        </is>
+      </c>
+      <c r="H55" s="22" t="inlineStr">
+        <is>
+          <t>Berchie A. - Ghana</t>
+        </is>
+      </c>
+      <c r="I55" s="12" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="J55" s="9" t="inlineStr">
+        <is>
+          <t>EXW</t>
+        </is>
+      </c>
+      <c r="K55" s="33" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L55" s="34" t="n">
+        <v>10200</v>
+      </c>
+      <c r="M55" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" s="34" t="n">
+        <v>52.68</v>
+      </c>
+      <c r="Q55" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="36" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="AB55" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="37" t="n">
+        <v>10300.37</v>
+      </c>
+      <c r="AD55" s="38" t="n">
+        <v>1699.63</v>
+      </c>
+      <c r="AE55" s="17" t="n">
+        <v>33244.7628</v>
+      </c>
+      <c r="AF55" s="19" t="inlineStr">
+        <is>
+          <t>09-05-2023</t>
+        </is>
+      </c>
     </row>
     <row r="56" ht="30" customHeight="1">
       <c r="A56" s="28" t="n"/>
